--- a/Data/Export/公式.xlsx
+++ b/Data/Export/公式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA8DF04-EC5D-4EB1-A68B-6D6FB5F62735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B7B65-6E50-4B51-AF77-ECF0F452DCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="4740" windowWidth="17580" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="城市收入" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9301" uniqueCount="1036">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9306" uniqueCount="1039">
   <si>
     <t>农业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3287,6 +3287,18 @@
   </si>
   <si>
     <t>适应力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻-防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵力差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3334,7 +3346,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3386,6 +3398,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3466,7 +3484,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3474,12 +3491,17 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4599,7 +4621,7 @@
   <dimension ref="A1:AI833"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4614,6 +4636,12 @@
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
+      <c r="I1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J1" s="7">
+        <v>10</v>
+      </c>
       <c r="R1" s="6" t="s">
         <v>90</v>
       </c>
@@ -4741,32 +4769,39 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B3" s="19" t="str">
+      <c r="A3" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="18" t="str">
         <f>VLOOKUP(A3,$X$2:$AI$833,VLOOKUP(A6,$Q$2:$U$13,5,0),0)</f>
-        <v>Ａ</v>
-      </c>
-      <c r="C3" s="20" t="str">
+        <v>Ｓ</v>
+      </c>
+      <c r="C3" s="19" t="str">
         <f>VLOOKUP(A3,X2:AC833,2,0)</f>
-        <v>61</v>
-      </c>
-      <c r="D3" s="20" t="str">
+        <v>81</v>
+      </c>
+      <c r="D3" s="19" t="str">
         <f>VLOOKUP(A3,X2:AC833,3,0)</f>
-        <v>78</v>
-      </c>
-      <c r="E3" s="20">
+        <v>92</v>
+      </c>
+      <c r="E3" s="19">
         <f>VLOOKUP(A3,X2:AC833,4,0)</f>
-        <v>44</v>
-      </c>
-      <c r="F3" s="20" t="str">
+        <v>69</v>
+      </c>
+      <c r="F3" s="19" t="str">
         <f>VLOOKUP(A3,X2:AC833,5,0)</f>
-        <v>20</v>
-      </c>
-      <c r="G3" s="20" t="str">
+        <v>49</v>
+      </c>
+      <c r="G3" s="19" t="str">
         <f>VLOOKUP(A3,X2:AC833,6,0)</f>
-        <v>29</v>
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J3">
+        <f>C6-D15</f>
+        <v>26</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>1025</v>
@@ -4834,6 +4869,13 @@
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
+      <c r="I4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="J4">
+        <f>B6-B15</f>
+        <v>2000</v>
+      </c>
       <c r="O4" s="8" t="s">
         <v>1027</v>
       </c>
@@ -4893,23 +4935,25 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="21" t="s">
         <v>93</v>
       </c>
       <c r="O5" s="8" t="s">
@@ -4971,21 +5015,23 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="20">
+      <c r="A6" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="22">
+        <v>5000</v>
+      </c>
+      <c r="C6" s="19">
         <f>_xlfn.FLOOR.MATH((C3*0.3+D3*0.7)*VLOOKUP(A6,$Q$2:$T$13,2,0) / 100 * VLOOKUP($B$3,$O$2:$P$5,2,0)  )</f>
-        <v>69</v>
-      </c>
-      <c r="D6" s="20">
+        <v>89</v>
+      </c>
+      <c r="D6" s="19">
         <f>_xlfn.FLOOR.MATH((C3 * 0.7 + E3 * 0.3)*VLOOKUP($A$6,$Q$2:$T$13,3,0) / 100 * VLOOKUP(B3,$O$2:$P$5,2,0)  )</f>
-        <v>47</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+        <v>80</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5" t="s">
         <v>82</v>
@@ -5341,31 +5387,31 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>1023</v>
+        <v>256</v>
       </c>
       <c r="B12" s="15" t="str">
         <f>VLOOKUP(A12,$X$2:$AI$833,VLOOKUP(A15,$Q$2:$U$13,5,0),0)</f>
-        <v>Ａ</v>
-      </c>
-      <c r="C12" s="18" t="str">
+        <v>Ｂ</v>
+      </c>
+      <c r="C12" s="17" t="str">
         <f>VLOOKUP(A12,X16:AC847,2,0)</f>
-        <v>61</v>
-      </c>
-      <c r="D12" s="18" t="str">
+        <v>79</v>
+      </c>
+      <c r="D12" s="17" t="str">
         <f>VLOOKUP(A12,X16:AC847,3,0)</f>
-        <v>78</v>
-      </c>
-      <c r="E12" s="18">
+        <v>83</v>
+      </c>
+      <c r="E12" s="17">
         <f>VLOOKUP(A12,X16:AC847,4,0)</f>
-        <v>44</v>
-      </c>
-      <c r="F12" s="18" t="str">
+        <v>65</v>
+      </c>
+      <c r="F12" s="17" t="str">
         <f>VLOOKUP(A12,X16:AC847,5,0)</f>
-        <v>20</v>
-      </c>
-      <c r="G12" s="18" t="str">
+        <v>65</v>
+      </c>
+      <c r="G12" s="17" t="str">
         <f>VLOOKUP(A12,X16:AC847,6,0)</f>
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="P12" s="5"/>
       <c r="Q12" s="5" t="s">
@@ -5485,7 +5531,9 @@
       <c r="A14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="24" t="s">
+        <v>11</v>
+      </c>
       <c r="C14" s="16" t="s">
         <v>90</v>
       </c>
@@ -5542,18 +5590,20 @@
       <c r="A15" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18">
+      <c r="B15" s="23">
+        <v>3000</v>
+      </c>
+      <c r="C15" s="17">
         <f>_xlfn.FLOOR.MATH((C12*0.3+D12*0.7)*VLOOKUP(A15,$Q$2:$T$13,2,0) / 100 * VLOOKUP($B$3,$O$2:$P$5,2,0)  )</f>
-        <v>69</v>
-      </c>
-      <c r="D15" s="18">
+        <v>85</v>
+      </c>
+      <c r="D15" s="17">
         <f>_xlfn.FLOOR.MATH((C12 * 0.7 + E12 * 0.3)*VLOOKUP($A$6,$Q$2:$T$13,3,0) / 100 * VLOOKUP(B12,$O$2:$P$5,2,0)  )</f>
-        <v>47</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
+        <v>63</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
       <c r="X15" s="8" t="s">
         <v>107</v>
       </c>

--- a/Data/Export/公式.xlsx
+++ b/Data/Export/公式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B7B65-6E50-4B51-AF77-ECF0F452DCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E66C03-BBD6-4B3C-8FAE-A62BC65A5061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="4740" windowWidth="17580" windowHeight="13320" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="城市收入" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet1!$A$1:$G$6</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9306" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9328" uniqueCount="1055">
   <si>
     <t>农业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3299,6 +3299,70 @@
   </si>
   <si>
     <t>兵力差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政治*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治安提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总政治</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总统率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.Max(1, (int)(Math.Pow(统率, 0.5)) - 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math.Max(1, v / 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多兵营征兵收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总征兵数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵营数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兵营基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总魅力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法数字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>废弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3306,7 +3370,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3342,6 +3406,20 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3450,7 +3528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3502,6 +3580,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3782,10 +3870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4275,6 +4363,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4284,10 +4377,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4912ACC-3A6D-463B-B81D-C4932049ADED}">
-  <dimension ref="A1:X16"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4610,6 +4703,11 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4620,11 +4718,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9783B251-0D13-4DDB-9310-3AD2D5332100}">
   <dimension ref="A1:AI833"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
@@ -5679,7 +5781,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="17" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X17" s="8" t="s">
         <v>109</v>
       </c>
@@ -5717,7 +5819,10 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="18" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="D18" s="1" t="s">
+        <v>1044</v>
+      </c>
       <c r="X18" s="8" t="s">
         <v>110</v>
       </c>
@@ -5755,7 +5860,23 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="19" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C19">
+        <v>300</v>
+      </c>
+      <c r="D19">
+        <f>C19*2</f>
+        <v>600</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1039</v>
+      </c>
       <c r="X19" s="8" t="s">
         <v>111</v>
       </c>
@@ -5793,7 +5914,23 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="20" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C20">
+        <v>300</v>
+      </c>
+      <c r="D20">
+        <f>MAX(1, INT(C20^0.5) - 5)</f>
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1045</v>
+      </c>
       <c r="X20" s="8" t="s">
         <v>112</v>
       </c>
@@ -5831,7 +5968,23 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="21" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C21">
+        <v>300</v>
+      </c>
+      <c r="D21">
+        <f>MAX(1,INT(C21/10))</f>
+        <v>30</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1046</v>
+      </c>
       <c r="X21" s="8" t="s">
         <v>113</v>
       </c>
@@ -5869,7 +6022,23 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="22" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C22">
+        <v>300</v>
+      </c>
+      <c r="D22">
+        <f>MAX(1,INT(C22/10))</f>
+        <v>30</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1046</v>
+      </c>
       <c r="X22" s="8" t="s">
         <v>114</v>
       </c>
@@ -5907,7 +6076,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="23" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X23" s="8" t="s">
         <v>115</v>
       </c>
@@ -5945,7 +6114,10 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="24" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
+        <v>1047</v>
+      </c>
       <c r="X24" s="8" t="s">
         <v>116</v>
       </c>
@@ -5983,7 +6155,13 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="25" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>1053</v>
+      </c>
       <c r="X25" s="8" t="s">
         <v>117</v>
       </c>
@@ -6021,7 +6199,19 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="26" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>300</v>
+      </c>
+      <c r="B26" s="26">
+        <v>85</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
       <c r="X26" s="8" t="s">
         <v>118</v>
       </c>
@@ -6059,7 +6249,17 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="27" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
       <c r="X27" s="8" t="s">
         <v>119</v>
       </c>
@@ -6097,7 +6297,25 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="28" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A28" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="26">
+        <v>100</v>
+      </c>
+      <c r="C28" s="26">
+        <v>1</v>
+      </c>
+      <c r="D28" s="26">
+        <f>INT((B28 )^ ($A$28/C28) * 100)</f>
+        <v>1000</v>
+      </c>
+      <c r="E28" s="25">
+        <f>INT($A$26 * D28 /$B$26)</f>
+        <v>3529</v>
+      </c>
+      <c r="F28" s="25"/>
       <c r="X28" s="8" t="s">
         <v>120</v>
       </c>
@@ -6135,7 +6353,23 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26">
+        <v>100</v>
+      </c>
+      <c r="C29" s="26">
+        <v>2</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" ref="D29:D33" si="0">INT((B29 )^ ($A$28/C29) * 100)</f>
+        <v>316</v>
+      </c>
+      <c r="E29" s="25">
+        <f t="shared" ref="E29:E33" si="1">INT($A$26 * D29 /$B$26)</f>
+        <v>1115</v>
+      </c>
+      <c r="F29" s="25"/>
       <c r="X29" s="8" t="s">
         <v>121</v>
       </c>
@@ -6173,7 +6407,23 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="30" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26">
+        <v>100</v>
+      </c>
+      <c r="C30" s="26">
+        <v>3</v>
+      </c>
+      <c r="D30" s="26">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" si="1"/>
+        <v>758</v>
+      </c>
+      <c r="F30" s="25"/>
       <c r="X30" s="8" t="s">
         <v>122</v>
       </c>
@@ -6211,7 +6461,23 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="31" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26">
+        <v>100</v>
+      </c>
+      <c r="C31" s="26">
+        <v>4</v>
+      </c>
+      <c r="D31" s="26">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="E31" s="25">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+      <c r="F31" s="25"/>
       <c r="X31" s="8" t="s">
         <v>123</v>
       </c>
@@ -6249,7 +6515,23 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="32" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26">
+        <v>100</v>
+      </c>
+      <c r="C32" s="26">
+        <v>5</v>
+      </c>
+      <c r="D32" s="26">
+        <f t="shared" si="0"/>
+        <v>158</v>
+      </c>
+      <c r="E32" s="25">
+        <f t="shared" si="1"/>
+        <v>557</v>
+      </c>
+      <c r="F32" s="25"/>
       <c r="X32" s="8" t="s">
         <v>124</v>
       </c>
@@ -6287,7 +6569,23 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="33" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26">
+        <v>100</v>
+      </c>
+      <c r="C33" s="26">
+        <v>6</v>
+      </c>
+      <c r="D33" s="26">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" si="1"/>
+        <v>515</v>
+      </c>
+      <c r="F33" s="25"/>
       <c r="X33" s="8" t="s">
         <v>125</v>
       </c>
@@ -6325,7 +6623,18 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="34" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F34" s="25">
+        <f>SUM(E28:E33)</f>
+        <v>7098</v>
+      </c>
       <c r="X34" s="8" t="s">
         <v>126</v>
       </c>
@@ -6363,7 +6672,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="35" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X35" s="8" t="s">
         <v>127</v>
       </c>
@@ -6401,7 +6710,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="36" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X36" s="8" t="s">
         <v>128</v>
       </c>
@@ -6439,7 +6748,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="37" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X37" s="8" t="s">
         <v>129</v>
       </c>
@@ -6477,7 +6786,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="38" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X38" s="8" t="s">
         <v>130</v>
       </c>
@@ -6515,7 +6824,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="39" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X39" s="8" t="s">
         <v>131</v>
       </c>
@@ -6553,7 +6862,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="40" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X40" s="8" t="s">
         <v>132</v>
       </c>
@@ -6591,7 +6900,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="41" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X41" s="8" t="s">
         <v>133</v>
       </c>
@@ -6629,7 +6938,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="42" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X42" s="8" t="s">
         <v>134</v>
       </c>
@@ -6667,7 +6976,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="43" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X43" s="8" t="s">
         <v>135</v>
       </c>
@@ -6705,7 +7014,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="44" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X44" s="8" t="s">
         <v>136</v>
       </c>
@@ -6743,7 +7052,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="45" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X45" s="8" t="s">
         <v>137</v>
       </c>
@@ -6781,7 +7090,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="46" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X46" s="8" t="s">
         <v>138</v>
       </c>
@@ -6819,7 +7128,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="47" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X47" s="8" t="s">
         <v>139</v>
       </c>
@@ -6857,7 +7166,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="48" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="X48" s="8" t="s">
         <v>140</v>
       </c>

--- a/Data/Export/公式.xlsx
+++ b/Data/Export/公式.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E66C03-BBD6-4B3C-8FAE-A62BC65A5061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A66C91-99A9-4C47-B1E5-64207B093792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="912" yWindow="1824" windowWidth="25704" windowHeight="13476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="城市收入" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9328" uniqueCount="1055">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9338" uniqueCount="1062">
   <si>
     <t>农业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3342,14 +3342,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>总征兵数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兵营数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兵营基础</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3363,6 +3355,42 @@
   </si>
   <si>
     <t>废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多铁匠铺打造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁匠铺基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3876,26 +3904,26 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="7.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.875" style="1" customWidth="1"/>
-    <col min="15" max="16" width="11.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.88671875" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3961,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10000</v>
       </c>
@@ -3977,7 +4005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>10000</v>
       </c>
@@ -4003,7 +4031,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <f>C2*H2+D2*H1</f>
         <v>4500</v>
@@ -4027,7 +4055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <f>B4*0.45</f>
         <v>2025</v>
@@ -4045,7 +4073,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>B4*0.55</f>
         <v>2475</v>
@@ -4073,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>A10*B3</f>
         <v>2025.0000000000002</v>
@@ -4082,7 +4110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f>B5/B2</f>
         <v>0.20250000000000001</v>
@@ -4091,7 +4119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f>A9*(0.4+0.2*F2/80+0.4*E2/80)</f>
         <v>0.20250000000000001</v>
@@ -4107,7 +4135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f>A10*B2</f>
         <v>2025.0000000000002</v>
@@ -4116,7 +4144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>500</v>
       </c>
@@ -4124,7 +4152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f>A12+A7</f>
         <v>2525</v>
@@ -4134,8 +4162,8 @@
         <v>3725</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>(D2*H17*H18+H16*D2)</f>
         <v>10000</v>
@@ -4164,7 +4192,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>A16*0.45</f>
         <v>4500</v>
@@ -4186,7 +4214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f>A16*0.55</f>
         <v>5500</v>
@@ -4205,7 +4233,7 @@
         <v>99000</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H19" s="1">
         <f>H17*H21*H20</f>
         <v>60000</v>
@@ -4214,7 +4242,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>A17</f>
         <v>4500</v>
@@ -4238,7 +4266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f>C20*A3</f>
         <v>4500</v>
@@ -4250,7 +4278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>10000</v>
       </c>
@@ -4258,7 +4286,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f>A21*C23</f>
         <v>54000</v>
@@ -4270,7 +4298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f>A21*C24</f>
         <v>108000</v>
@@ -4286,7 +4314,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f>A24+A22</f>
         <v>118000</v>
@@ -4303,7 +4331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G26" s="1" t="s">
         <v>60</v>
       </c>
@@ -4317,7 +4345,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H27" s="1" t="s">
         <v>59</v>
       </c>
@@ -4328,7 +4356,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
@@ -4339,13 +4367,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H29" s="1">
         <f>(J26/100*I26+J27/100*I27+J28/100*I28)*H25</f>
         <v>31.666666666666675</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G30" s="1" t="s">
         <v>61</v>
       </c>
@@ -4353,19 +4381,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H31" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -4379,18 +4407,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4912ACC-3A6D-463B-B81D-C4932049ADED}">
   <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -4407,7 +4435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -4449,7 +4477,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -4464,7 +4492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4472,7 +4500,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -4502,7 +4530,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -4532,7 +4560,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -4564,7 +4592,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -4587,7 +4615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4602,7 +4630,7 @@
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -4610,7 +4638,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4633,7 +4661,7 @@
         <v>203.99999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -4651,7 +4679,7 @@
         <v>4641</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -4666,7 +4694,7 @@
         <v>173.87999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>72</v>
       </c>
@@ -4680,7 +4708,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>73</v>
       </c>
@@ -4695,7 +4723,7 @@
         <v>312.98399999999992</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -4703,9 +4731,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -4718,17 +4746,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9783B251-0D13-4DDB-9310-3AD2D5332100}">
   <dimension ref="A1:AI833"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>75</v>
       </c>
@@ -4790,7 +4819,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>1021</v>
       </c>
@@ -4870,7 +4899,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>218</v>
       </c>
@@ -4963,7 +4992,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -5036,7 +5065,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>77</v>
       </c>
@@ -5116,7 +5145,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>80</v>
       </c>
@@ -5187,7 +5216,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="P7" s="5"/>
       <c r="Q7" s="5" t="s">
         <v>83</v>
@@ -5241,7 +5270,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="P8" s="5"/>
       <c r="Q8" s="5" t="s">
         <v>84</v>
@@ -5295,7 +5324,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="P9" s="5"/>
       <c r="Q9" s="5" t="s">
         <v>85</v>
@@ -5349,7 +5378,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>76</v>
       </c>
@@ -5412,7 +5441,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>1021</v>
       </c>
@@ -5487,7 +5516,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>256</v>
       </c>
@@ -5568,7 +5597,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -5629,7 +5658,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>77</v>
       </c>
@@ -5688,7 +5717,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>79</v>
       </c>
@@ -5743,7 +5772,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="X16" s="8" t="s">
         <v>108</v>
       </c>
@@ -5781,7 +5810,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="X17" s="8" t="s">
         <v>109</v>
       </c>
@@ -5819,7 +5848,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>1044</v>
       </c>
@@ -5860,7 +5889,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1040</v>
       </c>
@@ -5914,7 +5943,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1041</v>
       </c>
@@ -5968,7 +5997,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -6022,7 +6051,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>1</v>
       </c>
@@ -6076,7 +6105,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="X23" s="8" t="s">
         <v>115</v>
       </c>
@@ -6114,10 +6143,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="27" t="s">
         <v>1047</v>
       </c>
+      <c r="G24" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1053</v>
+      </c>
       <c r="X24" s="8" t="s">
         <v>116</v>
       </c>
@@ -6155,13 +6196,26 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="28" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>1053</v>
-      </c>
+        <v>1051</v>
+      </c>
+      <c r="G25">
+        <v>81</v>
+      </c>
+      <c r="H25">
+        <v>80</v>
+      </c>
+      <c r="I25">
+        <v>80</v>
+      </c>
+      <c r="L25" s="28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M25" s="28"/>
       <c r="X25" s="8" t="s">
         <v>117</v>
       </c>
@@ -6199,9 +6253,10 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
-        <v>300</v>
+        <f>G25+H25*0.5+I25*0.5</f>
+        <v>161</v>
       </c>
       <c r="B26" s="26">
         <v>85</v>
@@ -6212,6 +6267,14 @@
       </c>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
+      <c r="L26" s="25">
+        <f>G25+H25*0.5+I25*0.5</f>
+        <v>161</v>
+      </c>
+      <c r="M26" s="26"/>
+      <c r="S26" t="s">
+        <v>1060</v>
+      </c>
       <c r="X26" s="8" t="s">
         <v>118</v>
       </c>
@@ -6249,17 +6312,33 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="26" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26" t="s">
+        <v>1058</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="Q27" s="26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="R27">
+        <v>300</v>
+      </c>
       <c r="X27" s="8" t="s">
         <v>119</v>
       </c>
@@ -6297,7 +6376,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A28" s="26">
         <v>0.5</v>
       </c>
@@ -6308,14 +6387,46 @@
         <v>1</v>
       </c>
       <c r="D28" s="26">
-        <f>INT((B28 )^ ($A$28/C28) * 100)</f>
-        <v>1000</v>
+        <f>INT((B28 )^ ($A$28/C28) * 60)</f>
+        <v>600</v>
       </c>
       <c r="E28" s="25">
-        <f>INT($A$26 * D28 /$B$26)</f>
-        <v>3529</v>
+        <f>INT((($A$26*8.567-1) + 1500 ) *D28/ 1000)</f>
+        <v>1726</v>
       </c>
       <c r="F28" s="25"/>
+      <c r="J28" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="K28" s="26">
+        <v>100</v>
+      </c>
+      <c r="L28" s="26">
+        <v>1</v>
+      </c>
+      <c r="M28" s="26">
+        <f>INT((K28 )^ ($A$28/L28) * 50)</f>
+        <v>500</v>
+      </c>
+      <c r="N28" s="25">
+        <f>INT((($L$26*15) + 1500 ) *M28/ 1000)</f>
+        <v>1957</v>
+      </c>
+      <c r="O28" s="25"/>
+      <c r="Q28" s="26">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <f>INT(($R$27^(0.5 / Q28)) )</f>
+        <v>17</v>
+      </c>
+      <c r="T28">
+        <v>17</v>
+      </c>
+      <c r="U28">
+        <f>T28 -3</f>
+        <v>14</v>
+      </c>
       <c r="X28" s="8" t="s">
         <v>120</v>
       </c>
@@ -6353,7 +6464,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26">
         <v>100</v>
@@ -6362,14 +6473,51 @@
         <v>2</v>
       </c>
       <c r="D29" s="26">
-        <f t="shared" ref="D29:D33" si="0">INT((B29 )^ ($A$28/C29) * 100)</f>
-        <v>316</v>
+        <f t="shared" ref="D29:D47" si="0">INT((B29 )^ ($A$28/C29) * 60)</f>
+        <v>189</v>
       </c>
       <c r="E29" s="25">
-        <f t="shared" ref="E29:E33" si="1">INT($A$26 * D29 /$B$26)</f>
-        <v>1115</v>
-      </c>
-      <c r="F29" s="25"/>
+        <f t="shared" ref="E29:E47" si="1">INT((($A$26*8.567-1) + 1500 ) *D29/ 1000)</f>
+        <v>543</v>
+      </c>
+      <c r="F29" s="25">
+        <f>E28+E29</f>
+        <v>2269</v>
+      </c>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26">
+        <v>100</v>
+      </c>
+      <c r="L29" s="26">
+        <v>2</v>
+      </c>
+      <c r="M29" s="26">
+        <f t="shared" ref="M29:M47" si="2">INT((K29 )^ ($A$28/L29) * 50)</f>
+        <v>158</v>
+      </c>
+      <c r="N29" s="25">
+        <f t="shared" ref="N29:N48" si="3">INT((($L$26*15) + 1500 ) *M29/ 1000)</f>
+        <v>618</v>
+      </c>
+      <c r="O29" s="25">
+        <f>N28+N29</f>
+        <v>2575</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ref="S29:S47" si="4">INT(($R$27^(0.5 / Q29)) )</f>
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <f>S28+S29</f>
+        <v>21</v>
+      </c>
+      <c r="U29">
+        <f t="shared" ref="U29:U47" si="5">T29 -3</f>
+        <v>18</v>
+      </c>
       <c r="X29" s="8" t="s">
         <v>121</v>
       </c>
@@ -6407,7 +6555,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26">
         <v>100</v>
@@ -6417,13 +6565,50 @@
       </c>
       <c r="D30" s="26">
         <f t="shared" si="0"/>
-        <v>215</v>
+        <v>129</v>
       </c>
       <c r="E30" s="25">
         <f t="shared" si="1"/>
-        <v>758</v>
-      </c>
-      <c r="F30" s="25"/>
+        <v>371</v>
+      </c>
+      <c r="F30" s="25">
+        <f>F29+E30</f>
+        <v>2640</v>
+      </c>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26">
+        <v>100</v>
+      </c>
+      <c r="L30" s="26">
+        <v>3</v>
+      </c>
+      <c r="M30" s="26">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="N30" s="25">
+        <f t="shared" si="3"/>
+        <v>418</v>
+      </c>
+      <c r="O30" s="25">
+        <f>O29+N30</f>
+        <v>2993</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>3</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <f>T29+S30</f>
+        <v>23</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
       <c r="X30" s="8" t="s">
         <v>122</v>
       </c>
@@ -6461,7 +6646,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26">
         <v>100</v>
@@ -6471,13 +6656,50 @@
       </c>
       <c r="D31" s="26">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>106</v>
       </c>
       <c r="E31" s="25">
         <f t="shared" si="1"/>
-        <v>624</v>
-      </c>
-      <c r="F31" s="25"/>
+        <v>305</v>
+      </c>
+      <c r="F31" s="25">
+        <f t="shared" ref="F31:F47" si="6">F30+E31</f>
+        <v>2945</v>
+      </c>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26">
+        <v>100</v>
+      </c>
+      <c r="L31" s="26">
+        <v>4</v>
+      </c>
+      <c r="M31" s="26">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="N31" s="25">
+        <f t="shared" si="3"/>
+        <v>344</v>
+      </c>
+      <c r="O31" s="25">
+        <f t="shared" ref="O31:O47" si="7">O30+N31</f>
+        <v>3337</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" ref="T31:T47" si="8">T30+S31</f>
+        <v>25</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
       <c r="X31" s="8" t="s">
         <v>123</v>
       </c>
@@ -6515,7 +6737,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="26">
         <v>100</v>
@@ -6525,13 +6747,50 @@
       </c>
       <c r="D32" s="26">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="E32" s="25">
         <f t="shared" si="1"/>
-        <v>557</v>
-      </c>
-      <c r="F32" s="25"/>
+        <v>273</v>
+      </c>
+      <c r="F32" s="25">
+        <f t="shared" si="6"/>
+        <v>3218</v>
+      </c>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26">
+        <v>100</v>
+      </c>
+      <c r="L32" s="26">
+        <v>5</v>
+      </c>
+      <c r="M32" s="26">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="N32" s="25">
+        <f t="shared" si="3"/>
+        <v>309</v>
+      </c>
+      <c r="O32" s="25">
+        <f t="shared" si="7"/>
+        <v>3646</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
       <c r="X32" s="8" t="s">
         <v>124</v>
       </c>
@@ -6569,7 +6828,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26">
         <v>100</v>
@@ -6579,13 +6838,50 @@
       </c>
       <c r="D33" s="26">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="E33" s="25">
         <f t="shared" si="1"/>
-        <v>515</v>
-      </c>
-      <c r="F33" s="25"/>
+        <v>253</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" si="6"/>
+        <v>3471</v>
+      </c>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26">
+        <v>100</v>
+      </c>
+      <c r="L33" s="26">
+        <v>6</v>
+      </c>
+      <c r="M33" s="26">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="N33" s="25">
+        <f t="shared" si="3"/>
+        <v>285</v>
+      </c>
+      <c r="O33" s="25">
+        <f t="shared" si="7"/>
+        <v>3931</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>6</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
       <c r="X33" s="8" t="s">
         <v>125</v>
       </c>
@@ -6623,17 +6919,59 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25" t="s">
-        <v>1049</v>
+      <c r="B34" s="26">
+        <v>100</v>
+      </c>
+      <c r="C34" s="26">
+        <v>7</v>
+      </c>
+      <c r="D34" s="26">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="E34" s="25">
+        <f t="shared" si="1"/>
+        <v>238</v>
       </c>
       <c r="F34" s="25">
-        <f>SUM(E28:E33)</f>
-        <v>7098</v>
+        <f t="shared" si="6"/>
+        <v>3709</v>
+      </c>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26">
+        <v>100</v>
+      </c>
+      <c r="L34" s="26">
+        <v>7</v>
+      </c>
+      <c r="M34" s="26">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="N34" s="25">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="O34" s="25">
+        <f t="shared" si="7"/>
+        <v>4201</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>7</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="5"/>
+        <v>25</v>
       </c>
       <c r="X34" s="8" t="s">
         <v>126</v>
@@ -6672,7 +7010,58 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B35" s="26">
+        <v>100</v>
+      </c>
+      <c r="C35" s="26">
+        <v>8</v>
+      </c>
+      <c r="D35" s="26">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E35" s="25">
+        <f t="shared" si="1"/>
+        <v>230</v>
+      </c>
+      <c r="F35" s="25">
+        <f t="shared" si="6"/>
+        <v>3939</v>
+      </c>
+      <c r="K35" s="26">
+        <v>100</v>
+      </c>
+      <c r="L35" s="26">
+        <v>8</v>
+      </c>
+      <c r="M35" s="26">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="N35" s="25">
+        <f t="shared" si="3"/>
+        <v>258</v>
+      </c>
+      <c r="O35" s="25">
+        <f t="shared" si="7"/>
+        <v>4459</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>8</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
       <c r="X35" s="8" t="s">
         <v>127</v>
       </c>
@@ -6710,7 +7099,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B36" s="26">
+        <v>100</v>
+      </c>
+      <c r="C36" s="26">
+        <v>9</v>
+      </c>
+      <c r="D36" s="26">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E36" s="25">
+        <f t="shared" si="1"/>
+        <v>221</v>
+      </c>
+      <c r="F36" s="25">
+        <f t="shared" si="6"/>
+        <v>4160</v>
+      </c>
+      <c r="K36" s="26">
+        <v>100</v>
+      </c>
+      <c r="L36" s="26">
+        <v>9</v>
+      </c>
+      <c r="M36" s="26">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="N36" s="25">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="O36" s="25">
+        <f t="shared" si="7"/>
+        <v>4709</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>9</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="5"/>
+        <v>27</v>
+      </c>
       <c r="X36" s="8" t="s">
         <v>128</v>
       </c>
@@ -6748,7 +7188,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B37" s="26">
+        <v>100</v>
+      </c>
+      <c r="C37" s="26">
+        <v>10</v>
+      </c>
+      <c r="D37" s="26">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E37" s="25">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+      <c r="F37" s="25">
+        <f t="shared" si="6"/>
+        <v>4375</v>
+      </c>
+      <c r="K37" s="26">
+        <v>100</v>
+      </c>
+      <c r="L37" s="26">
+        <v>10</v>
+      </c>
+      <c r="M37" s="26">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="N37" s="25">
+        <f t="shared" si="3"/>
+        <v>242</v>
+      </c>
+      <c r="O37" s="25">
+        <f t="shared" si="7"/>
+        <v>4951</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>10</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="8"/>
+        <v>31</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
       <c r="X37" s="8" t="s">
         <v>129</v>
       </c>
@@ -6786,7 +7277,58 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B38" s="26">
+        <v>100</v>
+      </c>
+      <c r="C38" s="26">
+        <v>11</v>
+      </c>
+      <c r="D38" s="26">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E38" s="25">
+        <f t="shared" si="1"/>
+        <v>210</v>
+      </c>
+      <c r="F38" s="25">
+        <f t="shared" si="6"/>
+        <v>4585</v>
+      </c>
+      <c r="K38" s="26">
+        <v>100</v>
+      </c>
+      <c r="L38" s="26">
+        <v>11</v>
+      </c>
+      <c r="M38" s="26">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="N38" s="25">
+        <f t="shared" si="3"/>
+        <v>238</v>
+      </c>
+      <c r="O38" s="25">
+        <f t="shared" si="7"/>
+        <v>5189</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>11</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="8"/>
+        <v>32</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
       <c r="X38" s="8" t="s">
         <v>130</v>
       </c>
@@ -6824,7 +7366,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B39" s="26">
+        <v>100</v>
+      </c>
+      <c r="C39" s="26">
+        <v>12</v>
+      </c>
+      <c r="D39" s="26">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E39" s="25">
+        <f t="shared" si="1"/>
+        <v>207</v>
+      </c>
+      <c r="F39" s="25">
+        <f t="shared" si="6"/>
+        <v>4792</v>
+      </c>
+      <c r="K39" s="26">
+        <v>100</v>
+      </c>
+      <c r="L39" s="26">
+        <v>12</v>
+      </c>
+      <c r="M39" s="26">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="N39" s="25">
+        <f t="shared" si="3"/>
+        <v>234</v>
+      </c>
+      <c r="O39" s="25">
+        <f t="shared" si="7"/>
+        <v>5423</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>12</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
       <c r="X39" s="8" t="s">
         <v>131</v>
       </c>
@@ -6862,7 +7455,58 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B40" s="26">
+        <v>100</v>
+      </c>
+      <c r="C40" s="26">
+        <v>13</v>
+      </c>
+      <c r="D40" s="26">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="E40" s="25">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+      <c r="F40" s="25">
+        <f t="shared" si="6"/>
+        <v>4996</v>
+      </c>
+      <c r="K40" s="26">
+        <v>100</v>
+      </c>
+      <c r="L40" s="26">
+        <v>13</v>
+      </c>
+      <c r="M40" s="26">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="N40" s="25">
+        <f t="shared" si="3"/>
+        <v>230</v>
+      </c>
+      <c r="O40" s="25">
+        <f t="shared" si="7"/>
+        <v>5653</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>13</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="8"/>
+        <v>34</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
       <c r="X40" s="8" t="s">
         <v>132</v>
       </c>
@@ -6900,7 +7544,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B41" s="26">
+        <v>100</v>
+      </c>
+      <c r="C41" s="26">
+        <v>14</v>
+      </c>
+      <c r="D41" s="26">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E41" s="25">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="F41" s="25">
+        <f t="shared" si="6"/>
+        <v>5197</v>
+      </c>
+      <c r="K41" s="26">
+        <v>100</v>
+      </c>
+      <c r="L41" s="26">
+        <v>14</v>
+      </c>
+      <c r="M41" s="26">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="N41" s="25">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="O41" s="25">
+        <f t="shared" si="7"/>
+        <v>5880</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>14</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
       <c r="X41" s="8" t="s">
         <v>133</v>
       </c>
@@ -6938,7 +7633,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B42" s="26">
+        <v>100</v>
+      </c>
+      <c r="C42" s="26">
+        <v>15</v>
+      </c>
+      <c r="D42" s="26">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E42" s="25">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F42" s="25">
+        <f t="shared" si="6"/>
+        <v>5395</v>
+      </c>
+      <c r="K42" s="26">
+        <v>100</v>
+      </c>
+      <c r="L42" s="26">
+        <v>15</v>
+      </c>
+      <c r="M42" s="26">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="N42" s="25">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+      <c r="O42" s="25">
+        <f t="shared" si="7"/>
+        <v>6107</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>15</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="8"/>
+        <v>36</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
       <c r="X42" s="8" t="s">
         <v>134</v>
       </c>
@@ -6976,7 +7722,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B43" s="26">
+        <v>100</v>
+      </c>
+      <c r="C43" s="26">
+        <v>16</v>
+      </c>
+      <c r="D43" s="26">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="E43" s="25">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+      <c r="F43" s="25">
+        <f t="shared" si="6"/>
+        <v>5593</v>
+      </c>
+      <c r="K43" s="26">
+        <v>100</v>
+      </c>
+      <c r="L43" s="26">
+        <v>16</v>
+      </c>
+      <c r="M43" s="26">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="N43" s="25">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="O43" s="25">
+        <f t="shared" si="7"/>
+        <v>6330</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>16</v>
+      </c>
+      <c r="S43">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="8"/>
+        <v>37</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
       <c r="X43" s="8" t="s">
         <v>135</v>
       </c>
@@ -7014,7 +7811,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B44" s="26">
+        <v>100</v>
+      </c>
+      <c r="C44" s="26">
+        <v>17</v>
+      </c>
+      <c r="D44" s="26">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E44" s="25">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="F44" s="25">
+        <f t="shared" si="6"/>
+        <v>5788</v>
+      </c>
+      <c r="K44" s="26">
+        <v>100</v>
+      </c>
+      <c r="L44" s="26">
+        <v>17</v>
+      </c>
+      <c r="M44" s="26">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="N44" s="25">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="O44" s="25">
+        <f t="shared" si="7"/>
+        <v>6553</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>17</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
       <c r="X44" s="8" t="s">
         <v>136</v>
       </c>
@@ -7052,7 +7900,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B45" s="26">
+        <v>100</v>
+      </c>
+      <c r="C45" s="26">
+        <v>18</v>
+      </c>
+      <c r="D45" s="26">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E45" s="25">
+        <f t="shared" si="1"/>
+        <v>195</v>
+      </c>
+      <c r="F45" s="25">
+        <f t="shared" si="6"/>
+        <v>5983</v>
+      </c>
+      <c r="K45" s="26">
+        <v>100</v>
+      </c>
+      <c r="L45" s="26">
+        <v>18</v>
+      </c>
+      <c r="M45" s="26">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="N45" s="25">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="O45" s="25">
+        <f t="shared" si="7"/>
+        <v>6772</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>18</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="8"/>
+        <v>39</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
       <c r="X45" s="8" t="s">
         <v>137</v>
       </c>
@@ -7090,7 +7989,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B46" s="26">
+        <v>100</v>
+      </c>
+      <c r="C46" s="26">
+        <v>19</v>
+      </c>
+      <c r="D46" s="26">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E46" s="25">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="F46" s="25">
+        <f t="shared" si="6"/>
+        <v>6175</v>
+      </c>
+      <c r="K46" s="26">
+        <v>100</v>
+      </c>
+      <c r="L46" s="26">
+        <v>19</v>
+      </c>
+      <c r="M46" s="26">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="N46" s="25">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="O46" s="25">
+        <f t="shared" si="7"/>
+        <v>6991</v>
+      </c>
+      <c r="Q46" s="26">
+        <v>19</v>
+      </c>
+      <c r="S46">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="8"/>
+        <v>40</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="5"/>
+        <v>37</v>
+      </c>
       <c r="X46" s="8" t="s">
         <v>138</v>
       </c>
@@ -7128,7 +8078,58 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B47" s="26">
+        <v>100</v>
+      </c>
+      <c r="C47" s="26">
+        <v>20</v>
+      </c>
+      <c r="D47" s="26">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="E47" s="25">
+        <f t="shared" si="1"/>
+        <v>192</v>
+      </c>
+      <c r="F47" s="25">
+        <f t="shared" si="6"/>
+        <v>6367</v>
+      </c>
+      <c r="K47" s="26">
+        <v>100</v>
+      </c>
+      <c r="L47" s="26">
+        <v>20</v>
+      </c>
+      <c r="M47" s="26">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="N47" s="25">
+        <f t="shared" si="3"/>
+        <v>219</v>
+      </c>
+      <c r="O47" s="25">
+        <f t="shared" si="7"/>
+        <v>7210</v>
+      </c>
+      <c r="Q47" s="26">
+        <v>20</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
       <c r="X47" s="8" t="s">
         <v>139</v>
       </c>
@@ -7166,7 +8167,9 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="B48" s="26"/>
+      <c r="N48" s="25"/>
       <c r="X48" s="8" t="s">
         <v>140</v>
       </c>
@@ -7204,7 +8207,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="49" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X49" s="8" t="s">
         <v>141</v>
       </c>
@@ -7242,7 +8245,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="50" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X50" s="8" t="s">
         <v>142</v>
       </c>
@@ -7280,7 +8283,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="51" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X51" s="8" t="s">
         <v>143</v>
       </c>
@@ -7318,7 +8321,10 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="52" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>1061</v>
+      </c>
       <c r="X52" s="8" t="s">
         <v>144</v>
       </c>
@@ -7356,7 +8362,13 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="53" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B53" s="26" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C53">
+        <v>300</v>
+      </c>
       <c r="X53" s="8" t="s">
         <v>145</v>
       </c>
@@ -7394,7 +8406,21 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="54" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B54" s="26">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <f>INT(($R$27^(0.5 / B54))  )</f>
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <f>E54 - 10</f>
+        <v>7</v>
+      </c>
       <c r="X54" s="8" t="s">
         <v>146</v>
       </c>
@@ -7432,7 +8458,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="55" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B55" s="26">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" ref="D55:D73" si="9">INT(($R$27^(0.5 / B55))  )</f>
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <f>D54+D55</f>
+        <v>21</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55:F73" si="10">E55 - 10</f>
+        <v>11</v>
+      </c>
       <c r="X55" s="8" t="s">
         <v>147</v>
       </c>
@@ -7470,7 +8511,22 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="56" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B56" s="26">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E56">
+        <f>E55+D56</f>
+        <v>23</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
       <c r="X56" s="8" t="s">
         <v>148</v>
       </c>
@@ -7508,7 +8564,22 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="57" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B57" s="26">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:E73" si="11">E56+D57</f>
+        <v>25</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
       <c r="X57" s="8" t="s">
         <v>149</v>
       </c>
@@ -7546,7 +8617,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="58" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B58" s="26">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
       <c r="X58" s="8" t="s">
         <v>150</v>
       </c>
@@ -7584,7 +8670,22 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="59" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B59" s="26">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
       <c r="X59" s="8" t="s">
         <v>151</v>
       </c>
@@ -7622,7 +8723,22 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="60" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B60" s="26">
+        <v>7</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
       <c r="X60" s="8" t="s">
         <v>152</v>
       </c>
@@ -7660,7 +8776,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="61" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B61" s="26">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
       <c r="X61" s="8" t="s">
         <v>153</v>
       </c>
@@ -7698,7 +8829,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="62" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B62" s="26">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
       <c r="X62" s="8" t="s">
         <v>154</v>
       </c>
@@ -7736,7 +8882,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="63" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B63" s="26">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
       <c r="X63" s="8" t="s">
         <v>155</v>
       </c>
@@ -7774,7 +8935,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="64" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B64" s="26">
+        <v>11</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
       <c r="X64" s="8" t="s">
         <v>156</v>
       </c>
@@ -7812,7 +8988,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="65" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B65" s="26">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
       <c r="X65" s="8" t="s">
         <v>157</v>
       </c>
@@ -7850,7 +9041,22 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="66" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B66" s="26">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
       <c r="X66" s="8" t="s">
         <v>158</v>
       </c>
@@ -7888,7 +9094,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="67" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B67" s="26">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
       <c r="X67" s="8" t="s">
         <v>159</v>
       </c>
@@ -7926,7 +9147,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="68" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B68" s="26">
+        <v>15</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
       <c r="X68" s="8" t="s">
         <v>160</v>
       </c>
@@ -7964,7 +9200,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="69" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B69" s="26">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
       <c r="X69" s="8" t="s">
         <v>161</v>
       </c>
@@ -8002,7 +9253,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="70" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B70" s="26">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
       <c r="X70" s="8" t="s">
         <v>162</v>
       </c>
@@ -8040,7 +9306,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="71" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B71" s="26">
+        <v>18</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
       <c r="X71" s="8" t="s">
         <v>163</v>
       </c>
@@ -8078,7 +9359,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="72" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B72" s="26">
+        <v>19</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
       <c r="X72" s="8" t="s">
         <v>164</v>
       </c>
@@ -8116,7 +9412,22 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="73" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B73" s="26">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
       <c r="X73" s="8" t="s">
         <v>165</v>
       </c>
@@ -8154,7 +9465,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="74" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X74" s="8" t="s">
         <v>166</v>
       </c>
@@ -8192,7 +9503,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="75" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X75" s="8" t="s">
         <v>167</v>
       </c>
@@ -8230,7 +9541,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="76" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X76" s="8" t="s">
         <v>168</v>
       </c>
@@ -8268,7 +9579,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="77" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X77" s="8" t="s">
         <v>169</v>
       </c>
@@ -8306,7 +9617,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="78" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X78" s="8" t="s">
         <v>170</v>
       </c>
@@ -8344,7 +9655,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="79" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X79" s="8" t="s">
         <v>171</v>
       </c>
@@ -8382,7 +9693,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="80" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:35" x14ac:dyDescent="0.25">
       <c r="X80" s="8" t="s">
         <v>172</v>
       </c>
@@ -8420,7 +9731,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="81" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X81" s="8" t="s">
         <v>173</v>
       </c>
@@ -8458,7 +9769,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="82" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X82" s="8" t="s">
         <v>174</v>
       </c>
@@ -8496,7 +9807,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="83" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X83" s="8" t="s">
         <v>175</v>
       </c>
@@ -8534,7 +9845,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="84" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X84" s="8" t="s">
         <v>176</v>
       </c>
@@ -8572,7 +9883,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="85" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X85" s="8" t="s">
         <v>177</v>
       </c>
@@ -8610,7 +9921,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="86" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X86" s="8" t="s">
         <v>178</v>
       </c>
@@ -8648,7 +9959,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="87" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X87" s="8" t="s">
         <v>179</v>
       </c>
@@ -8686,7 +9997,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="88" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X88" s="8" t="s">
         <v>180</v>
       </c>
@@ -8724,7 +10035,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="89" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X89" s="8" t="s">
         <v>181</v>
       </c>
@@ -8762,7 +10073,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="90" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X90" s="8" t="s">
         <v>182</v>
       </c>
@@ -8800,7 +10111,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="91" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X91" s="8" t="s">
         <v>183</v>
       </c>
@@ -8838,7 +10149,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="92" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X92" s="8" t="s">
         <v>184</v>
       </c>
@@ -8876,7 +10187,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="93" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X93" s="8" t="s">
         <v>185</v>
       </c>
@@ -8914,7 +10225,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="94" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X94" s="8" t="s">
         <v>186</v>
       </c>
@@ -8952,7 +10263,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="95" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X95" s="8" t="s">
         <v>187</v>
       </c>
@@ -8990,7 +10301,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="96" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X96" s="8" t="s">
         <v>188</v>
       </c>
@@ -9028,7 +10339,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="97" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="97" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X97" s="8" t="s">
         <v>189</v>
       </c>
@@ -9066,7 +10377,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="98" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="98" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X98" s="8" t="s">
         <v>190</v>
       </c>
@@ -9104,7 +10415,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="99" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="99" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X99" s="8" t="s">
         <v>191</v>
       </c>
@@ -9142,7 +10453,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="100" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="100" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X100" s="8" t="s">
         <v>192</v>
       </c>
@@ -9180,7 +10491,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="101" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="101" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X101" s="8" t="s">
         <v>193</v>
       </c>
@@ -9218,7 +10529,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="102" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="102" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X102" s="8" t="s">
         <v>194</v>
       </c>
@@ -9256,7 +10567,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="103" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="103" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X103" s="8" t="s">
         <v>195</v>
       </c>
@@ -9294,7 +10605,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="104" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="104" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X104" s="8" t="s">
         <v>196</v>
       </c>
@@ -9332,7 +10643,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="105" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="105" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X105" s="8" t="s">
         <v>197</v>
       </c>
@@ -9370,7 +10681,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="106" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="106" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X106" s="8" t="s">
         <v>198</v>
       </c>
@@ -9408,7 +10719,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="107" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="107" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X107" s="8" t="s">
         <v>199</v>
       </c>
@@ -9446,7 +10757,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="108" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="108" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X108" s="8" t="s">
         <v>200</v>
       </c>
@@ -9484,7 +10795,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="109" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="109" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X109" s="8" t="s">
         <v>201</v>
       </c>
@@ -9522,7 +10833,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="110" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="110" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X110" s="8" t="s">
         <v>202</v>
       </c>
@@ -9560,7 +10871,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="111" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="111" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X111" s="8" t="s">
         <v>203</v>
       </c>
@@ -9598,7 +10909,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="112" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="112" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X112" s="8" t="s">
         <v>204</v>
       </c>
@@ -9636,7 +10947,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="113" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="113" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X113" s="8" t="s">
         <v>205</v>
       </c>
@@ -9674,7 +10985,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="114" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="114" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X114" s="8" t="s">
         <v>206</v>
       </c>
@@ -9712,7 +11023,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="115" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="115" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X115" s="8" t="s">
         <v>207</v>
       </c>
@@ -9750,7 +11061,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="116" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="116" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X116" s="8" t="s">
         <v>208</v>
       </c>
@@ -9788,7 +11099,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="117" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="117" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X117" s="8" t="s">
         <v>209</v>
       </c>
@@ -9826,7 +11137,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="118" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="118" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X118" s="8" t="s">
         <v>210</v>
       </c>
@@ -9864,7 +11175,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="119" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="119" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X119" s="8" t="s">
         <v>211</v>
       </c>
@@ -9902,7 +11213,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="120" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="120" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X120" s="8" t="s">
         <v>212</v>
       </c>
@@ -9940,7 +11251,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="121" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X121" s="8" t="s">
         <v>213</v>
       </c>
@@ -9978,7 +11289,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="122" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="122" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X122" s="8" t="s">
         <v>214</v>
       </c>
@@ -10016,7 +11327,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="123" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="123" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X123" s="8" t="s">
         <v>215</v>
       </c>
@@ -10054,7 +11365,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="124" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="124" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X124" s="8" t="s">
         <v>216</v>
       </c>
@@ -10092,7 +11403,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="125" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="125" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X125" s="8" t="s">
         <v>217</v>
       </c>
@@ -10130,7 +11441,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="126" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="126" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X126" s="8" t="s">
         <v>218</v>
       </c>
@@ -10168,7 +11479,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="127" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="127" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X127" s="8" t="s">
         <v>219</v>
       </c>
@@ -10206,7 +11517,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="128" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="128" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X128" s="8" t="s">
         <v>220</v>
       </c>
@@ -10244,7 +11555,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="129" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="129" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X129" s="8" t="s">
         <v>221</v>
       </c>
@@ -10282,7 +11593,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="130" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="130" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X130" s="8" t="s">
         <v>222</v>
       </c>
@@ -10320,7 +11631,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="131" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="131" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X131" s="8" t="s">
         <v>223</v>
       </c>
@@ -10358,7 +11669,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="132" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="132" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X132" s="8" t="s">
         <v>224</v>
       </c>
@@ -10396,7 +11707,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="133" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="133" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X133" s="8" t="s">
         <v>225</v>
       </c>
@@ -10434,7 +11745,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="134" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="134" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X134" s="8" t="s">
         <v>226</v>
       </c>
@@ -10472,7 +11783,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="135" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="135" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X135" s="8" t="s">
         <v>227</v>
       </c>
@@ -10510,7 +11821,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="136" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="136" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X136" s="8" t="s">
         <v>228</v>
       </c>
@@ -10548,7 +11859,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="137" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="137" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X137" s="8" t="s">
         <v>229</v>
       </c>
@@ -10586,7 +11897,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="138" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="138" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X138" s="8" t="s">
         <v>230</v>
       </c>
@@ -10624,7 +11935,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="139" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="139" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X139" s="8" t="s">
         <v>231</v>
       </c>
@@ -10662,7 +11973,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="140" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="140" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X140" s="8" t="s">
         <v>232</v>
       </c>
@@ -10700,7 +12011,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="141" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="141" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X141" s="8" t="s">
         <v>233</v>
       </c>
@@ -10738,7 +12049,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="142" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="142" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X142" s="8" t="s">
         <v>234</v>
       </c>
@@ -10776,7 +12087,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="143" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="143" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X143" s="8" t="s">
         <v>235</v>
       </c>
@@ -10814,7 +12125,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="144" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="144" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X144" s="8" t="s">
         <v>236</v>
       </c>
@@ -10852,7 +12163,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="145" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="145" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X145" s="8" t="s">
         <v>237</v>
       </c>
@@ -10890,7 +12201,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="146" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="146" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X146" s="8" t="s">
         <v>238</v>
       </c>
@@ -10928,7 +12239,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="147" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="147" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X147" s="8" t="s">
         <v>239</v>
       </c>
@@ -10966,7 +12277,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="148" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="148" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X148" s="8" t="s">
         <v>240</v>
       </c>
@@ -11004,7 +12315,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="149" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="149" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X149" s="8" t="s">
         <v>241</v>
       </c>
@@ -11042,7 +12353,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="150" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="150" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X150" s="8" t="s">
         <v>242</v>
       </c>
@@ -11080,7 +12391,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="151" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="151" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X151" s="8" t="s">
         <v>243</v>
       </c>
@@ -11118,7 +12429,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="152" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="152" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X152" s="8" t="s">
         <v>244</v>
       </c>
@@ -11156,7 +12467,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="153" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="153" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X153" s="8" t="s">
         <v>245</v>
       </c>
@@ -11194,7 +12505,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="154" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="154" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X154" s="8" t="s">
         <v>246</v>
       </c>
@@ -11232,7 +12543,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="155" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="155" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X155" s="8" t="s">
         <v>247</v>
       </c>
@@ -11270,7 +12581,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="156" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="156" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X156" s="8" t="s">
         <v>248</v>
       </c>
@@ -11308,7 +12619,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="157" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="157" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X157" s="8" t="s">
         <v>249</v>
       </c>
@@ -11346,7 +12657,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="158" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="158" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X158" s="8" t="s">
         <v>250</v>
       </c>
@@ -11384,7 +12695,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="159" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="159" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X159" s="8" t="s">
         <v>251</v>
       </c>
@@ -11422,7 +12733,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="160" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="160" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X160" s="8" t="s">
         <v>252</v>
       </c>
@@ -11460,7 +12771,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="161" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="161" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X161" s="8" t="s">
         <v>253</v>
       </c>
@@ -11498,7 +12809,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="162" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="162" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X162" s="8" t="s">
         <v>254</v>
       </c>
@@ -11536,7 +12847,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="163" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="163" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X163" s="8" t="s">
         <v>1023</v>
       </c>
@@ -11574,7 +12885,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="164" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="164" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X164" s="8" t="s">
         <v>255</v>
       </c>
@@ -11612,7 +12923,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="165" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="165" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X165" s="8" t="s">
         <v>256</v>
       </c>
@@ -11650,7 +12961,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="166" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="166" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X166" s="8" t="s">
         <v>257</v>
       </c>
@@ -11688,7 +12999,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="167" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="167" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X167" s="8" t="s">
         <v>258</v>
       </c>
@@ -11726,7 +13037,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="168" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="168" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X168" s="8" t="s">
         <v>259</v>
       </c>
@@ -11764,7 +13075,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="169" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="169" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X169" s="8" t="s">
         <v>260</v>
       </c>
@@ -11802,7 +13113,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="170" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="170" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X170" s="8" t="s">
         <v>261</v>
       </c>
@@ -11840,7 +13151,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="171" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="171" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X171" s="8" t="s">
         <v>262</v>
       </c>
@@ -11878,7 +13189,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="172" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="172" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X172" s="8" t="s">
         <v>263</v>
       </c>
@@ -11916,7 +13227,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="173" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="173" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X173" s="8" t="s">
         <v>264</v>
       </c>
@@ -11954,7 +13265,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="174" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="174" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X174" s="8" t="s">
         <v>265</v>
       </c>
@@ -11992,7 +13303,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="175" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="175" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X175" s="8" t="s">
         <v>266</v>
       </c>
@@ -12030,7 +13341,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="176" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="176" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X176" s="8" t="s">
         <v>267</v>
       </c>
@@ -12068,7 +13379,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="177" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="177" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X177" s="8" t="s">
         <v>268</v>
       </c>
@@ -12106,7 +13417,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="178" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="178" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X178" s="8" t="s">
         <v>269</v>
       </c>
@@ -12144,7 +13455,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="179" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="179" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X179" s="8" t="s">
         <v>270</v>
       </c>
@@ -12182,7 +13493,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="180" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="180" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X180" s="8" t="s">
         <v>271</v>
       </c>
@@ -12220,7 +13531,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="181" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="181" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X181" s="8" t="s">
         <v>272</v>
       </c>
@@ -12258,7 +13569,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="182" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="182" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X182" s="8" t="s">
         <v>273</v>
       </c>
@@ -12296,7 +13607,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="183" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="183" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X183" s="8" t="s">
         <v>274</v>
       </c>
@@ -12334,7 +13645,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="184" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="184" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X184" s="8" t="s">
         <v>275</v>
       </c>
@@ -12372,7 +13683,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="185" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="185" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X185" s="8" t="s">
         <v>276</v>
       </c>
@@ -12410,7 +13721,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="186" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="186" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X186" s="8" t="s">
         <v>277</v>
       </c>
@@ -12448,7 +13759,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="187" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="187" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X187" s="8" t="s">
         <v>278</v>
       </c>
@@ -12486,7 +13797,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="188" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="188" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X188" s="8" t="s">
         <v>279</v>
       </c>
@@ -12524,7 +13835,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="189" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="189" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X189" s="8" t="s">
         <v>280</v>
       </c>
@@ -12562,7 +13873,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="190" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="190" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X190" s="8" t="s">
         <v>281</v>
       </c>
@@ -12600,7 +13911,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="191" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="191" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X191" s="8" t="s">
         <v>282</v>
       </c>
@@ -12638,7 +13949,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="192" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="192" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X192" s="8" t="s">
         <v>283</v>
       </c>
@@ -12676,7 +13987,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="193" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="193" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X193" s="8" t="s">
         <v>284</v>
       </c>
@@ -12714,7 +14025,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="194" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="194" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X194" s="8" t="s">
         <v>285</v>
       </c>
@@ -12752,7 +14063,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="195" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="195" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X195" s="8" t="s">
         <v>286</v>
       </c>
@@ -12790,7 +14101,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="196" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="196" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X196" s="8" t="s">
         <v>287</v>
       </c>
@@ -12828,7 +14139,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="197" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="197" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X197" s="8" t="s">
         <v>288</v>
       </c>
@@ -12866,7 +14177,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="198" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="198" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X198" s="8" t="s">
         <v>289</v>
       </c>
@@ -12904,7 +14215,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="199" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="199" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X199" s="8" t="s">
         <v>290</v>
       </c>
@@ -12942,7 +14253,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="200" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="200" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X200" s="8" t="s">
         <v>291</v>
       </c>
@@ -12980,7 +14291,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="201" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="201" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X201" s="8" t="s">
         <v>292</v>
       </c>
@@ -13018,7 +14329,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="202" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="202" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X202" s="8" t="s">
         <v>293</v>
       </c>
@@ -13056,7 +14367,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="203" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="203" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X203" s="8" t="s">
         <v>294</v>
       </c>
@@ -13094,7 +14405,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="204" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="204" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X204" s="8" t="s">
         <v>295</v>
       </c>
@@ -13132,7 +14443,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="205" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="205" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X205" s="8" t="s">
         <v>296</v>
       </c>
@@ -13170,7 +14481,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="206" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="206" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X206" s="8" t="s">
         <v>297</v>
       </c>
@@ -13208,7 +14519,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="207" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="207" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X207" s="8" t="s">
         <v>298</v>
       </c>
@@ -13246,7 +14557,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="208" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="208" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X208" s="8" t="s">
         <v>299</v>
       </c>
@@ -13284,7 +14595,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="209" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="209" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X209" s="8" t="s">
         <v>300</v>
       </c>
@@ -13322,7 +14633,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="210" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="210" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X210" s="8" t="s">
         <v>301</v>
       </c>
@@ -13360,7 +14671,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="211" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="211" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X211" s="8" t="s">
         <v>302</v>
       </c>
@@ -13398,7 +14709,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="212" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="212" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X212" s="8" t="s">
         <v>303</v>
       </c>
@@ -13436,7 +14747,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="213" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="213" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X213" s="8" t="s">
         <v>304</v>
       </c>
@@ -13474,7 +14785,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="214" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="214" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X214" s="8" t="s">
         <v>305</v>
       </c>
@@ -13512,7 +14823,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="215" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="215" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X215" s="8" t="s">
         <v>306</v>
       </c>
@@ -13550,7 +14861,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="216" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="216" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X216" s="8" t="s">
         <v>307</v>
       </c>
@@ -13588,7 +14899,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="217" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="217" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X217" s="8" t="s">
         <v>308</v>
       </c>
@@ -13626,7 +14937,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="218" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="218" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X218" s="8" t="s">
         <v>309</v>
       </c>
@@ -13664,7 +14975,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="219" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="219" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X219" s="8" t="s">
         <v>310</v>
       </c>
@@ -13702,7 +15013,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="220" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="220" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X220" s="8" t="s">
         <v>311</v>
       </c>
@@ -13740,7 +15051,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="221" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="221" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X221" s="8" t="s">
         <v>312</v>
       </c>
@@ -13778,7 +15089,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="222" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="222" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X222" s="8" t="s">
         <v>313</v>
       </c>
@@ -13816,7 +15127,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="223" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="223" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X223" s="8" t="s">
         <v>314</v>
       </c>
@@ -13854,7 +15165,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="224" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="224" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X224" s="8" t="s">
         <v>315</v>
       </c>
@@ -13892,7 +15203,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="225" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="225" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X225" s="8" t="s">
         <v>316</v>
       </c>
@@ -13930,7 +15241,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="226" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="226" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X226" s="8" t="s">
         <v>317</v>
       </c>
@@ -13968,7 +15279,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="227" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="227" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X227" s="8" t="s">
         <v>318</v>
       </c>
@@ -14006,7 +15317,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="228" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="228" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X228" s="8" t="s">
         <v>319</v>
       </c>
@@ -14044,7 +15355,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="229" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="229" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X229" s="8" t="s">
         <v>320</v>
       </c>
@@ -14082,7 +15393,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="230" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="230" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X230" s="8" t="s">
         <v>321</v>
       </c>
@@ -14120,7 +15431,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="231" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="231" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X231" s="8" t="s">
         <v>322</v>
       </c>
@@ -14158,7 +15469,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="232" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="232" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X232" s="8" t="s">
         <v>323</v>
       </c>
@@ -14196,7 +15507,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="233" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="233" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X233" s="8" t="s">
         <v>324</v>
       </c>
@@ -14234,7 +15545,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="234" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="234" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X234" s="8" t="s">
         <v>325</v>
       </c>
@@ -14272,7 +15583,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="235" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="235" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X235" s="8" t="s">
         <v>326</v>
       </c>
@@ -14310,7 +15621,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="236" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="236" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X236" s="8" t="s">
         <v>327</v>
       </c>
@@ -14348,7 +15659,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="237" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="237" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X237" s="8" t="s">
         <v>328</v>
       </c>
@@ -14386,7 +15697,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="238" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="238" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X238" s="8" t="s">
         <v>329</v>
       </c>
@@ -14424,7 +15735,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="239" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="239" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X239" s="8" t="s">
         <v>330</v>
       </c>
@@ -14462,7 +15773,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="240" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="240" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X240" s="8" t="s">
         <v>331</v>
       </c>
@@ -14500,7 +15811,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="241" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="241" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X241" s="8" t="s">
         <v>332</v>
       </c>
@@ -14538,7 +15849,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="242" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="242" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X242" s="8" t="s">
         <v>333</v>
       </c>
@@ -14576,7 +15887,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="243" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="243" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X243" s="8" t="s">
         <v>334</v>
       </c>
@@ -14614,7 +15925,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="244" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="244" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X244" s="8" t="s">
         <v>335</v>
       </c>
@@ -14652,7 +15963,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="245" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="245" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X245" s="8" t="s">
         <v>336</v>
       </c>
@@ -14690,7 +16001,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="246" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="246" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X246" s="8" t="s">
         <v>337</v>
       </c>
@@ -14728,7 +16039,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="247" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="247" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X247" s="8" t="s">
         <v>338</v>
       </c>
@@ -14766,7 +16077,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="248" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="248" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X248" s="8" t="s">
         <v>339</v>
       </c>
@@ -14804,7 +16115,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="249" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="249" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X249" s="8" t="s">
         <v>340</v>
       </c>
@@ -14842,7 +16153,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="250" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="250" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X250" s="8" t="s">
         <v>341</v>
       </c>
@@ -14880,7 +16191,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="251" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="251" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X251" s="8" t="s">
         <v>342</v>
       </c>
@@ -14918,7 +16229,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="252" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="252" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X252" s="8" t="s">
         <v>343</v>
       </c>
@@ -14956,7 +16267,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="253" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="253" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X253" s="8" t="s">
         <v>344</v>
       </c>
@@ -14994,7 +16305,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="254" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="254" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X254" s="8" t="s">
         <v>345</v>
       </c>
@@ -15032,7 +16343,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="255" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="255" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X255" s="8" t="s">
         <v>346</v>
       </c>
@@ -15070,7 +16381,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="256" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="256" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X256" s="8" t="s">
         <v>347</v>
       </c>
@@ -15108,7 +16419,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="257" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="257" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X257" s="8" t="s">
         <v>348</v>
       </c>
@@ -15146,7 +16457,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="258" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="258" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X258" s="8" t="s">
         <v>349</v>
       </c>
@@ -15184,7 +16495,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="259" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="259" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X259" s="8" t="s">
         <v>350</v>
       </c>
@@ -15222,7 +16533,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="260" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="260" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X260" s="8" t="s">
         <v>351</v>
       </c>
@@ -15260,7 +16571,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="261" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="261" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X261" s="8" t="s">
         <v>352</v>
       </c>
@@ -15298,7 +16609,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="262" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="262" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X262" s="8" t="s">
         <v>353</v>
       </c>
@@ -15336,7 +16647,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="263" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="263" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X263" s="8" t="s">
         <v>354</v>
       </c>
@@ -15374,7 +16685,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="264" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="264" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X264" s="8" t="s">
         <v>355</v>
       </c>
@@ -15412,7 +16723,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="265" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="265" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X265" s="8" t="s">
         <v>356</v>
       </c>
@@ -15450,7 +16761,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="266" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="266" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X266" s="8" t="s">
         <v>357</v>
       </c>
@@ -15488,7 +16799,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="267" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="267" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X267" s="8" t="s">
         <v>358</v>
       </c>
@@ -15526,7 +16837,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="268" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="268" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X268" s="8" t="s">
         <v>359</v>
       </c>
@@ -15564,7 +16875,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="269" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="269" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X269" s="8" t="s">
         <v>360</v>
       </c>
@@ -15602,7 +16913,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="270" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="270" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X270" s="8" t="s">
         <v>361</v>
       </c>
@@ -15640,7 +16951,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="271" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="271" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X271" s="8" t="s">
         <v>362</v>
       </c>
@@ -15678,7 +16989,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="272" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="272" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X272" s="8" t="s">
         <v>363</v>
       </c>
@@ -15716,7 +17027,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="273" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="273" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X273" s="8" t="s">
         <v>364</v>
       </c>
@@ -15754,7 +17065,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="274" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="274" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X274" s="8" t="s">
         <v>365</v>
       </c>
@@ -15792,7 +17103,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="275" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="275" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X275" s="8" t="s">
         <v>366</v>
       </c>
@@ -15830,7 +17141,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="276" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="276" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X276" s="8" t="s">
         <v>367</v>
       </c>
@@ -15868,7 +17179,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="277" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="277" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X277" s="8" t="s">
         <v>368</v>
       </c>
@@ -15906,7 +17217,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="278" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="278" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X278" s="8" t="s">
         <v>369</v>
       </c>
@@ -15944,7 +17255,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="279" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="279" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X279" s="8" t="s">
         <v>370</v>
       </c>
@@ -15982,7 +17293,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="280" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="280" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X280" s="8" t="s">
         <v>371</v>
       </c>
@@ -16020,7 +17331,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="281" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="281" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X281" s="8" t="s">
         <v>372</v>
       </c>
@@ -16058,7 +17369,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="282" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="282" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X282" s="8" t="s">
         <v>373</v>
       </c>
@@ -16096,7 +17407,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="283" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="283" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X283" s="8" t="s">
         <v>374</v>
       </c>
@@ -16134,7 +17445,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="284" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="284" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X284" s="8" t="s">
         <v>375</v>
       </c>
@@ -16172,7 +17483,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="285" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="285" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X285" s="8" t="s">
         <v>376</v>
       </c>
@@ -16210,7 +17521,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="286" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="286" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X286" s="8" t="s">
         <v>377</v>
       </c>
@@ -16248,7 +17559,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="287" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="287" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X287" s="8" t="s">
         <v>378</v>
       </c>
@@ -16286,7 +17597,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="288" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="288" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X288" s="8" t="s">
         <v>379</v>
       </c>
@@ -16324,7 +17635,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="289" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="289" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X289" s="8" t="s">
         <v>380</v>
       </c>
@@ -16362,7 +17673,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="290" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="290" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X290" s="8" t="s">
         <v>381</v>
       </c>
@@ -16400,7 +17711,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="291" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="291" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X291" s="8" t="s">
         <v>382</v>
       </c>
@@ -16438,7 +17749,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="292" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="292" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X292" s="8" t="s">
         <v>383</v>
       </c>
@@ -16476,7 +17787,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="293" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="293" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X293" s="8" t="s">
         <v>384</v>
       </c>
@@ -16514,7 +17825,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="294" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="294" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X294" s="8" t="s">
         <v>385</v>
       </c>
@@ -16552,7 +17863,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="295" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="295" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X295" s="8" t="s">
         <v>386</v>
       </c>
@@ -16590,7 +17901,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="296" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="296" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X296" s="8" t="s">
         <v>387</v>
       </c>
@@ -16628,7 +17939,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="297" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="297" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X297" s="8" t="s">
         <v>388</v>
       </c>
@@ -16666,7 +17977,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="298" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="298" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X298" s="8" t="s">
         <v>389</v>
       </c>
@@ -16704,7 +18015,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="299" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="299" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X299" s="8" t="s">
         <v>390</v>
       </c>
@@ -16742,7 +18053,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="300" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="300" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X300" s="8" t="s">
         <v>391</v>
       </c>
@@ -16780,7 +18091,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="301" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="301" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X301" s="8" t="s">
         <v>392</v>
       </c>
@@ -16818,7 +18129,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="302" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="302" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X302" s="8" t="s">
         <v>393</v>
       </c>
@@ -16856,7 +18167,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="303" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="303" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X303" s="8" t="s">
         <v>394</v>
       </c>
@@ -16894,7 +18205,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="304" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="304" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X304" s="8" t="s">
         <v>395</v>
       </c>
@@ -16932,7 +18243,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="305" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="305" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X305" s="8" t="s">
         <v>396</v>
       </c>
@@ -16970,7 +18281,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="306" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="306" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X306" s="8" t="s">
         <v>397</v>
       </c>
@@ -17008,7 +18319,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="307" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="307" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X307" s="8" t="s">
         <v>398</v>
       </c>
@@ -17046,7 +18357,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="308" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="308" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X308" s="8" t="s">
         <v>399</v>
       </c>
@@ -17084,7 +18395,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="309" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="309" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X309" s="8" t="s">
         <v>400</v>
       </c>
@@ -17122,7 +18433,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="310" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="310" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X310" s="8" t="s">
         <v>401</v>
       </c>
@@ -17160,7 +18471,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="311" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="311" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X311" s="8" t="s">
         <v>402</v>
       </c>
@@ -17198,7 +18509,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="312" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="312" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X312" s="8" t="s">
         <v>403</v>
       </c>
@@ -17236,7 +18547,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="313" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="313" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X313" s="8" t="s">
         <v>404</v>
       </c>
@@ -17274,7 +18585,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="314" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="314" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X314" s="8" t="s">
         <v>405</v>
       </c>
@@ -17312,7 +18623,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="315" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="315" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X315" s="8" t="s">
         <v>406</v>
       </c>
@@ -17350,7 +18661,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="316" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="316" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X316" s="8" t="s">
         <v>407</v>
       </c>
@@ -17388,7 +18699,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="317" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="317" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X317" s="8" t="s">
         <v>408</v>
       </c>
@@ -17426,7 +18737,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="318" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="318" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X318" s="8" t="s">
         <v>409</v>
       </c>
@@ -17464,7 +18775,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="319" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="319" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X319" s="8" t="s">
         <v>410</v>
       </c>
@@ -17502,7 +18813,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="320" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="320" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X320" s="8" t="s">
         <v>411</v>
       </c>
@@ -17540,7 +18851,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="321" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="321" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X321" s="8" t="s">
         <v>412</v>
       </c>
@@ -17578,7 +18889,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="322" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="322" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X322" s="8" t="s">
         <v>413</v>
       </c>
@@ -17616,7 +18927,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="323" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="323" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X323" s="8" t="s">
         <v>414</v>
       </c>
@@ -17654,7 +18965,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="324" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="324" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X324" s="8" t="s">
         <v>415</v>
       </c>
@@ -17692,7 +19003,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="325" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="325" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X325" s="8" t="s">
         <v>416</v>
       </c>
@@ -17730,7 +19041,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="326" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="326" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X326" s="8" t="s">
         <v>417</v>
       </c>
@@ -17768,7 +19079,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="327" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="327" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X327" s="8" t="s">
         <v>418</v>
       </c>
@@ -17806,7 +19117,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="328" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="328" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X328" s="8" t="s">
         <v>419</v>
       </c>
@@ -17844,7 +19155,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="329" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="329" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X329" s="8" t="s">
         <v>420</v>
       </c>
@@ -17882,7 +19193,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="330" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="330" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X330" s="8" t="s">
         <v>421</v>
       </c>
@@ -17920,7 +19231,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="331" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="331" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X331" s="8" t="s">
         <v>422</v>
       </c>
@@ -17958,7 +19269,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="332" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="332" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X332" s="8" t="s">
         <v>423</v>
       </c>
@@ -17996,7 +19307,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="333" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="333" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X333" s="8" t="s">
         <v>424</v>
       </c>
@@ -18034,7 +19345,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="334" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="334" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X334" s="8" t="s">
         <v>425</v>
       </c>
@@ -18072,7 +19383,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="335" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="335" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X335" s="8" t="s">
         <v>426</v>
       </c>
@@ -18110,7 +19421,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="336" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="336" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X336" s="8" t="s">
         <v>427</v>
       </c>
@@ -18148,7 +19459,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="337" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="337" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X337" s="8" t="s">
         <v>428</v>
       </c>
@@ -18186,7 +19497,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="338" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="338" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X338" s="8" t="s">
         <v>429</v>
       </c>
@@ -18224,7 +19535,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="339" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="339" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X339" s="8" t="s">
         <v>430</v>
       </c>
@@ -18262,7 +19573,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="340" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="340" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X340" s="8" t="s">
         <v>431</v>
       </c>
@@ -18300,7 +19611,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="341" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="341" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X341" s="8" t="s">
         <v>432</v>
       </c>
@@ -18338,7 +19649,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="342" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="342" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X342" s="8" t="s">
         <v>433</v>
       </c>
@@ -18376,7 +19687,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="343" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="343" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X343" s="8" t="s">
         <v>434</v>
       </c>
@@ -18414,7 +19725,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="344" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="344" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X344" s="8" t="s">
         <v>435</v>
       </c>
@@ -18452,7 +19763,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="345" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="345" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X345" s="8" t="s">
         <v>436</v>
       </c>
@@ -18490,7 +19801,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="346" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="346" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X346" s="8" t="s">
         <v>437</v>
       </c>
@@ -18528,7 +19839,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="347" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="347" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X347" s="8" t="s">
         <v>438</v>
       </c>
@@ -18566,7 +19877,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="348" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="348" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X348" s="8" t="s">
         <v>439</v>
       </c>
@@ -18604,7 +19915,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="349" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="349" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X349" s="8" t="s">
         <v>440</v>
       </c>
@@ -18642,7 +19953,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="350" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="350" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X350" s="8" t="s">
         <v>441</v>
       </c>
@@ -18680,7 +19991,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="351" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="351" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X351" s="8" t="s">
         <v>442</v>
       </c>
@@ -18718,7 +20029,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="352" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="352" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X352" s="8" t="s">
         <v>443</v>
       </c>
@@ -18756,7 +20067,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="353" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="353" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X353" s="8" t="s">
         <v>444</v>
       </c>
@@ -18794,7 +20105,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="354" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="354" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X354" s="8" t="s">
         <v>445</v>
       </c>
@@ -18832,7 +20143,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="355" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="355" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X355" s="8" t="s">
         <v>446</v>
       </c>
@@ -18870,7 +20181,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="356" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="356" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X356" s="8" t="s">
         <v>447</v>
       </c>
@@ -18908,7 +20219,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="357" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="357" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X357" s="8" t="s">
         <v>448</v>
       </c>
@@ -18946,7 +20257,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="358" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="358" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X358" s="8" t="s">
         <v>449</v>
       </c>
@@ -18984,7 +20295,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="359" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="359" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X359" s="8" t="s">
         <v>450</v>
       </c>
@@ -19022,7 +20333,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="360" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="360" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X360" s="8" t="s">
         <v>451</v>
       </c>
@@ -19060,7 +20371,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="361" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="361" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X361" s="8" t="s">
         <v>452</v>
       </c>
@@ -19098,7 +20409,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="362" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="362" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X362" s="8" t="s">
         <v>453</v>
       </c>
@@ -19136,7 +20447,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="363" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="363" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X363" s="8" t="s">
         <v>454</v>
       </c>
@@ -19174,7 +20485,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="364" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="364" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X364" s="8" t="s">
         <v>455</v>
       </c>
@@ -19212,7 +20523,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="365" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="365" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X365" s="8" t="s">
         <v>456</v>
       </c>
@@ -19250,7 +20561,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="366" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="366" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X366" s="8" t="s">
         <v>457</v>
       </c>
@@ -19288,7 +20599,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="367" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="367" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X367" s="8" t="s">
         <v>458</v>
       </c>
@@ -19326,7 +20637,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="368" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="368" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X368" s="8" t="s">
         <v>459</v>
       </c>
@@ -19364,7 +20675,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="369" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="369" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X369" s="8" t="s">
         <v>460</v>
       </c>
@@ -19402,7 +20713,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="370" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="370" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X370" s="8" t="s">
         <v>461</v>
       </c>
@@ -19440,7 +20751,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="371" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="371" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X371" s="8" t="s">
         <v>462</v>
       </c>
@@ -19478,7 +20789,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="372" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="372" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X372" s="8" t="s">
         <v>463</v>
       </c>
@@ -19516,7 +20827,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="373" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="373" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X373" s="8" t="s">
         <v>464</v>
       </c>
@@ -19554,7 +20865,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="374" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="374" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X374" s="8" t="s">
         <v>465</v>
       </c>
@@ -19592,7 +20903,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="375" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="375" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X375" s="8" t="s">
         <v>466</v>
       </c>
@@ -19630,7 +20941,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="376" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="376" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X376" s="8" t="s">
         <v>467</v>
       </c>
@@ -19668,7 +20979,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="377" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="377" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X377" s="8" t="s">
         <v>468</v>
       </c>
@@ -19706,7 +21017,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="378" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="378" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X378" s="8" t="s">
         <v>469</v>
       </c>
@@ -19744,7 +21055,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="379" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="379" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X379" s="8" t="s">
         <v>470</v>
       </c>
@@ -19782,7 +21093,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="380" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="380" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X380" s="8" t="s">
         <v>471</v>
       </c>
@@ -19820,7 +21131,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="381" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="381" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X381" s="8" t="s">
         <v>472</v>
       </c>
@@ -19858,7 +21169,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="382" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="382" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X382" s="8" t="s">
         <v>473</v>
       </c>
@@ -19896,7 +21207,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="383" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="383" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X383" s="8" t="s">
         <v>474</v>
       </c>
@@ -19934,7 +21245,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="384" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="384" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X384" s="8" t="s">
         <v>475</v>
       </c>
@@ -19972,7 +21283,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="385" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="385" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X385" s="8" t="s">
         <v>476</v>
       </c>
@@ -20010,7 +21321,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="386" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="386" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X386" s="8" t="s">
         <v>477</v>
       </c>
@@ -20048,7 +21359,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="387" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="387" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X387" s="8" t="s">
         <v>478</v>
       </c>
@@ -20086,7 +21397,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="388" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="388" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X388" s="8" t="s">
         <v>479</v>
       </c>
@@ -20124,7 +21435,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="389" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="389" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X389" s="8" t="s">
         <v>480</v>
       </c>
@@ -20162,7 +21473,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="390" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="390" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X390" s="8" t="s">
         <v>481</v>
       </c>
@@ -20200,7 +21511,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="391" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="391" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X391" s="8" t="s">
         <v>482</v>
       </c>
@@ -20238,7 +21549,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="392" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="392" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X392" s="8" t="s">
         <v>483</v>
       </c>
@@ -20276,7 +21587,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="393" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="393" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X393" s="8" t="s">
         <v>484</v>
       </c>
@@ -20314,7 +21625,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="394" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="394" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X394" s="8" t="s">
         <v>485</v>
       </c>
@@ -20352,7 +21663,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="395" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="395" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X395" s="8" t="s">
         <v>486</v>
       </c>
@@ -20390,7 +21701,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="396" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="396" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X396" s="8" t="s">
         <v>487</v>
       </c>
@@ -20428,7 +21739,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="397" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="397" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X397" s="8" t="s">
         <v>488</v>
       </c>
@@ -20466,7 +21777,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="398" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="398" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X398" s="8" t="s">
         <v>489</v>
       </c>
@@ -20504,7 +21815,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="399" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="399" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X399" s="8" t="s">
         <v>490</v>
       </c>
@@ -20542,7 +21853,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="400" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="400" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X400" s="8" t="s">
         <v>491</v>
       </c>
@@ -20580,7 +21891,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="401" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="401" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X401" s="8" t="s">
         <v>492</v>
       </c>
@@ -20618,7 +21929,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="402" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="402" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X402" s="8" t="s">
         <v>493</v>
       </c>
@@ -20656,7 +21967,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="403" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="403" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X403" s="8" t="s">
         <v>494</v>
       </c>
@@ -20694,7 +22005,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="404" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="404" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X404" s="8" t="s">
         <v>495</v>
       </c>
@@ -20732,7 +22043,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="405" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="405" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X405" s="8" t="s">
         <v>496</v>
       </c>
@@ -20770,7 +22081,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="406" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="406" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X406" s="8" t="s">
         <v>497</v>
       </c>
@@ -20808,7 +22119,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="407" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="407" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X407" s="8" t="s">
         <v>498</v>
       </c>
@@ -20846,7 +22157,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="408" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="408" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X408" s="8" t="s">
         <v>499</v>
       </c>
@@ -20884,7 +22195,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="409" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="409" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X409" s="8" t="s">
         <v>500</v>
       </c>
@@ -20922,7 +22233,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="410" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="410" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X410" s="8" t="s">
         <v>501</v>
       </c>
@@ -20960,7 +22271,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="411" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="411" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X411" s="8" t="s">
         <v>502</v>
       </c>
@@ -20998,7 +22309,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="412" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="412" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X412" s="8" t="s">
         <v>503</v>
       </c>
@@ -21036,7 +22347,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="413" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="413" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X413" s="8" t="s">
         <v>504</v>
       </c>
@@ -21074,7 +22385,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="414" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="414" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X414" s="8" t="s">
         <v>505</v>
       </c>
@@ -21112,7 +22423,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="415" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="415" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X415" s="8" t="s">
         <v>506</v>
       </c>
@@ -21150,7 +22461,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="416" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="416" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X416" s="8" t="s">
         <v>507</v>
       </c>
@@ -21188,7 +22499,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="417" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="417" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X417" s="8" t="s">
         <v>508</v>
       </c>
@@ -21226,7 +22537,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="418" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="418" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X418" s="8" t="s">
         <v>509</v>
       </c>
@@ -21264,7 +22575,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="419" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="419" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X419" s="8" t="s">
         <v>510</v>
       </c>
@@ -21302,7 +22613,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="420" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="420" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X420" s="8" t="s">
         <v>511</v>
       </c>
@@ -21340,7 +22651,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="421" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="421" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X421" s="8" t="s">
         <v>512</v>
       </c>
@@ -21378,7 +22689,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="422" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="422" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X422" s="8" t="s">
         <v>513</v>
       </c>
@@ -21416,7 +22727,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="423" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="423" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X423" s="8" t="s">
         <v>514</v>
       </c>
@@ -21454,7 +22765,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="424" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="424" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X424" s="8" t="s">
         <v>515</v>
       </c>
@@ -21492,7 +22803,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="425" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="425" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X425" s="8" t="s">
         <v>516</v>
       </c>
@@ -21530,7 +22841,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="426" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="426" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X426" s="8" t="s">
         <v>517</v>
       </c>
@@ -21568,7 +22879,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="427" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="427" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X427" s="8" t="s">
         <v>518</v>
       </c>
@@ -21606,7 +22917,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="428" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="428" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X428" s="8" t="s">
         <v>519</v>
       </c>
@@ -21644,7 +22955,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="429" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="429" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X429" s="8" t="s">
         <v>520</v>
       </c>
@@ -21682,7 +22993,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="430" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="430" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X430" s="8" t="s">
         <v>521</v>
       </c>
@@ -21720,7 +23031,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="431" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="431" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X431" s="8" t="s">
         <v>521</v>
       </c>
@@ -21758,7 +23069,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="432" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="432" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X432" s="8" t="s">
         <v>522</v>
       </c>
@@ -21796,7 +23107,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="433" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="433" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X433" s="8" t="s">
         <v>523</v>
       </c>
@@ -21834,7 +23145,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="434" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="434" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X434" s="8" t="s">
         <v>524</v>
       </c>
@@ -21872,7 +23183,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="435" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="435" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X435" s="8" t="s">
         <v>525</v>
       </c>
@@ -21910,7 +23221,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="436" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="436" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X436" s="8" t="s">
         <v>526</v>
       </c>
@@ -21948,7 +23259,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="437" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="437" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X437" s="8" t="s">
         <v>527</v>
       </c>
@@ -21986,7 +23297,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="438" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="438" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X438" s="8" t="s">
         <v>528</v>
       </c>
@@ -22024,7 +23335,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="439" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="439" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X439" s="8" t="s">
         <v>529</v>
       </c>
@@ -22062,7 +23373,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="440" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="440" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X440" s="8" t="s">
         <v>530</v>
       </c>
@@ -22100,7 +23411,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="441" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="441" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X441" s="8" t="s">
         <v>531</v>
       </c>
@@ -22138,7 +23449,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="442" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="442" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X442" s="8" t="s">
         <v>532</v>
       </c>
@@ -22176,7 +23487,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="443" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="443" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X443" s="8" t="s">
         <v>533</v>
       </c>
@@ -22214,7 +23525,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="444" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="444" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X444" s="8" t="s">
         <v>534</v>
       </c>
@@ -22252,7 +23563,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="445" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="445" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X445" s="8" t="s">
         <v>535</v>
       </c>
@@ -22290,7 +23601,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="446" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="446" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X446" s="8" t="s">
         <v>536</v>
       </c>
@@ -22328,7 +23639,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="447" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="447" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X447" s="8" t="s">
         <v>537</v>
       </c>
@@ -22366,7 +23677,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="448" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="448" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X448" s="8" t="s">
         <v>538</v>
       </c>
@@ -22404,7 +23715,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="449" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="449" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X449" s="8" t="s">
         <v>539</v>
       </c>
@@ -22442,7 +23753,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="450" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="450" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X450" s="8" t="s">
         <v>540</v>
       </c>
@@ -22480,7 +23791,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="451" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="451" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X451" s="8" t="s">
         <v>541</v>
       </c>
@@ -22518,7 +23829,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="452" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="452" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X452" s="8" t="s">
         <v>542</v>
       </c>
@@ -22556,7 +23867,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="453" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="453" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X453" s="8" t="s">
         <v>543</v>
       </c>
@@ -22594,7 +23905,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="454" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="454" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X454" s="8" t="s">
         <v>544</v>
       </c>
@@ -22632,7 +23943,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="455" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="455" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X455" s="8" t="s">
         <v>545</v>
       </c>
@@ -22670,7 +23981,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="456" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="456" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X456" s="8" t="s">
         <v>546</v>
       </c>
@@ -22708,7 +24019,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="457" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="457" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X457" s="8" t="s">
         <v>547</v>
       </c>
@@ -22746,7 +24057,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="458" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="458" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X458" s="8" t="s">
         <v>548</v>
       </c>
@@ -22784,7 +24095,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="459" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="459" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X459" s="8" t="s">
         <v>549</v>
       </c>
@@ -22822,7 +24133,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="460" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="460" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X460" s="8" t="s">
         <v>550</v>
       </c>
@@ -22860,7 +24171,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="461" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="461" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X461" s="8" t="s">
         <v>551</v>
       </c>
@@ -22898,7 +24209,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="462" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="462" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X462" s="8" t="s">
         <v>552</v>
       </c>
@@ -22936,7 +24247,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="463" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="463" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X463" s="8" t="s">
         <v>553</v>
       </c>
@@ -22974,7 +24285,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="464" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="464" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X464" s="8" t="s">
         <v>554</v>
       </c>
@@ -23012,7 +24323,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="465" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="465" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X465" s="8" t="s">
         <v>555</v>
       </c>
@@ -23050,7 +24361,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="466" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="466" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X466" s="8" t="s">
         <v>556</v>
       </c>
@@ -23088,7 +24399,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="467" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="467" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X467" s="8" t="s">
         <v>557</v>
       </c>
@@ -23126,7 +24437,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="468" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="468" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X468" s="8" t="s">
         <v>558</v>
       </c>
@@ -23164,7 +24475,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="469" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="469" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X469" s="8" t="s">
         <v>559</v>
       </c>
@@ -23202,7 +24513,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="470" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="470" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X470" s="8" t="s">
         <v>560</v>
       </c>
@@ -23240,7 +24551,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="471" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="471" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X471" s="8" t="s">
         <v>561</v>
       </c>
@@ -23278,7 +24589,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="472" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="472" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X472" s="8" t="s">
         <v>562</v>
       </c>
@@ -23316,7 +24627,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="473" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="473" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X473" s="8" t="s">
         <v>563</v>
       </c>
@@ -23354,7 +24665,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="474" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="474" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X474" s="8" t="s">
         <v>564</v>
       </c>
@@ -23392,7 +24703,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="475" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="475" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X475" s="8" t="s">
         <v>565</v>
       </c>
@@ -23430,7 +24741,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="476" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="476" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X476" s="8" t="s">
         <v>566</v>
       </c>
@@ -23468,7 +24779,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="477" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="477" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X477" s="8" t="s">
         <v>567</v>
       </c>
@@ -23506,7 +24817,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="478" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="478" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X478" s="8" t="s">
         <v>568</v>
       </c>
@@ -23544,7 +24855,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="479" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="479" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X479" s="8" t="s">
         <v>569</v>
       </c>
@@ -23582,7 +24893,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="480" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="480" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X480" s="8" t="s">
         <v>570</v>
       </c>
@@ -23620,7 +24931,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="481" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="481" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X481" s="8" t="s">
         <v>571</v>
       </c>
@@ -23658,7 +24969,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="482" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="482" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X482" s="8" t="s">
         <v>572</v>
       </c>
@@ -23696,7 +25007,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="483" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="483" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X483" s="8" t="s">
         <v>573</v>
       </c>
@@ -23734,7 +25045,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="484" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="484" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X484" s="8" t="s">
         <v>574</v>
       </c>
@@ -23772,7 +25083,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="485" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="485" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X485" s="8" t="s">
         <v>575</v>
       </c>
@@ -23810,7 +25121,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="486" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="486" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X486" s="8" t="s">
         <v>576</v>
       </c>
@@ -23848,7 +25159,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="487" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="487" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X487" s="8" t="s">
         <v>577</v>
       </c>
@@ -23886,7 +25197,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="488" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="488" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X488" s="8" t="s">
         <v>578</v>
       </c>
@@ -23924,7 +25235,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="489" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="489" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X489" s="8" t="s">
         <v>579</v>
       </c>
@@ -23962,7 +25273,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="490" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="490" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X490" s="8" t="s">
         <v>580</v>
       </c>
@@ -24000,7 +25311,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="491" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="491" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X491" s="8" t="s">
         <v>581</v>
       </c>
@@ -24038,7 +25349,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="492" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="492" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X492" s="8" t="s">
         <v>582</v>
       </c>
@@ -24076,7 +25387,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="493" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="493" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X493" s="8" t="s">
         <v>583</v>
       </c>
@@ -24114,7 +25425,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="494" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="494" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X494" s="8" t="s">
         <v>584</v>
       </c>
@@ -24152,7 +25463,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="495" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="495" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X495" s="8" t="s">
         <v>585</v>
       </c>
@@ -24190,7 +25501,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="496" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="496" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X496" s="8" t="s">
         <v>586</v>
       </c>
@@ -24228,7 +25539,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="497" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="497" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X497" s="8" t="s">
         <v>587</v>
       </c>
@@ -24266,7 +25577,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="498" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="498" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X498" s="8" t="s">
         <v>588</v>
       </c>
@@ -24304,7 +25615,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="499" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="499" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X499" s="8" t="s">
         <v>589</v>
       </c>
@@ -24342,7 +25653,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="500" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="500" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X500" s="8" t="s">
         <v>590</v>
       </c>
@@ -24380,7 +25691,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="501" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="501" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X501" s="8" t="s">
         <v>591</v>
       </c>
@@ -24418,7 +25729,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="502" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="502" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X502" s="8" t="s">
         <v>592</v>
       </c>
@@ -24456,7 +25767,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="503" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="503" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X503" s="8" t="s">
         <v>593</v>
       </c>
@@ -24494,7 +25805,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="504" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="504" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X504" s="8" t="s">
         <v>594</v>
       </c>
@@ -24532,7 +25843,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="505" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="505" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X505" s="8" t="s">
         <v>595</v>
       </c>
@@ -24570,7 +25881,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="506" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="506" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X506" s="8" t="s">
         <v>596</v>
       </c>
@@ -24608,7 +25919,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="507" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="507" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X507" s="8" t="s">
         <v>597</v>
       </c>
@@ -24646,7 +25957,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="508" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="508" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X508" s="8" t="s">
         <v>598</v>
       </c>
@@ -24684,7 +25995,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="509" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="509" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X509" s="8" t="s">
         <v>599</v>
       </c>
@@ -24722,7 +26033,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="510" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="510" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X510" s="8" t="s">
         <v>600</v>
       </c>
@@ -24760,7 +26071,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="511" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="511" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X511" s="8" t="s">
         <v>601</v>
       </c>
@@ -24798,7 +26109,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="512" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="512" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X512" s="8" t="s">
         <v>602</v>
       </c>
@@ -24836,7 +26147,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="513" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="513" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X513" s="8" t="s">
         <v>603</v>
       </c>
@@ -24874,7 +26185,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="514" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="514" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X514" s="8" t="s">
         <v>604</v>
       </c>
@@ -24912,7 +26223,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="515" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="515" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X515" s="8" t="s">
         <v>605</v>
       </c>
@@ -24950,7 +26261,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="516" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="516" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X516" s="8" t="s">
         <v>605</v>
       </c>
@@ -24988,7 +26299,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="517" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="517" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X517" s="8" t="s">
         <v>606</v>
       </c>
@@ -25026,7 +26337,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="518" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="518" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X518" s="8" t="s">
         <v>607</v>
       </c>
@@ -25064,7 +26375,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="519" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="519" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X519" s="8" t="s">
         <v>608</v>
       </c>
@@ -25102,7 +26413,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="520" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="520" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X520" s="8" t="s">
         <v>609</v>
       </c>
@@ -25140,7 +26451,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="521" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="521" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X521" s="8" t="s">
         <v>610</v>
       </c>
@@ -25178,7 +26489,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="522" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="522" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X522" s="8" t="s">
         <v>611</v>
       </c>
@@ -25216,7 +26527,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="523" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="523" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X523" s="8" t="s">
         <v>612</v>
       </c>
@@ -25254,7 +26565,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="524" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="524" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X524" s="8" t="s">
         <v>613</v>
       </c>
@@ -25292,7 +26603,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="525" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="525" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X525" s="8" t="s">
         <v>614</v>
       </c>
@@ -25330,7 +26641,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="526" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="526" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X526" s="8" t="s">
         <v>615</v>
       </c>
@@ -25368,7 +26679,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="527" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="527" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X527" s="8" t="s">
         <v>616</v>
       </c>
@@ -25406,7 +26717,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="528" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="528" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X528" s="8" t="s">
         <v>617</v>
       </c>
@@ -25444,7 +26755,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="529" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="529" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X529" s="8" t="s">
         <v>618</v>
       </c>
@@ -25482,7 +26793,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="530" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="530" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X530" s="8" t="s">
         <v>619</v>
       </c>
@@ -25520,7 +26831,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="531" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="531" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X531" s="8" t="s">
         <v>620</v>
       </c>
@@ -25558,7 +26869,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="532" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="532" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X532" s="8" t="s">
         <v>621</v>
       </c>
@@ -25596,7 +26907,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="533" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="533" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X533" s="8" t="s">
         <v>622</v>
       </c>
@@ -25634,7 +26945,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="534" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="534" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X534" s="8" t="s">
         <v>623</v>
       </c>
@@ -25672,7 +26983,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="535" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="535" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X535" s="8" t="s">
         <v>624</v>
       </c>
@@ -25710,7 +27021,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="536" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="536" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X536" s="8" t="s">
         <v>625</v>
       </c>
@@ -25748,7 +27059,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="537" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="537" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X537" s="8" t="s">
         <v>626</v>
       </c>
@@ -25786,7 +27097,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="538" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="538" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X538" s="8" t="s">
         <v>627</v>
       </c>
@@ -25824,7 +27135,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="539" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="539" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X539" s="8" t="s">
         <v>628</v>
       </c>
@@ -25862,7 +27173,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="540" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="540" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X540" s="8" t="s">
         <v>629</v>
       </c>
@@ -25900,7 +27211,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="541" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="541" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X541" s="8" t="s">
         <v>630</v>
       </c>
@@ -25938,7 +27249,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="542" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="542" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X542" s="8" t="s">
         <v>631</v>
       </c>
@@ -25976,7 +27287,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="543" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="543" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X543" s="8" t="s">
         <v>632</v>
       </c>
@@ -26014,7 +27325,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="544" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="544" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X544" s="8" t="s">
         <v>633</v>
       </c>
@@ -26052,7 +27363,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="545" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="545" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X545" s="8" t="s">
         <v>634</v>
       </c>
@@ -26090,7 +27401,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="546" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="546" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X546" s="8" t="s">
         <v>635</v>
       </c>
@@ -26128,7 +27439,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="547" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="547" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X547" s="8" t="s">
         <v>636</v>
       </c>
@@ -26166,7 +27477,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="548" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="548" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X548" s="8" t="s">
         <v>637</v>
       </c>
@@ -26204,7 +27515,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="549" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="549" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X549" s="8" t="s">
         <v>638</v>
       </c>
@@ -26242,7 +27553,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="550" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="550" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X550" s="8" t="s">
         <v>639</v>
       </c>
@@ -26280,7 +27591,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="551" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="551" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X551" s="8" t="s">
         <v>640</v>
       </c>
@@ -26318,7 +27629,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="552" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="552" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X552" s="8" t="s">
         <v>641</v>
       </c>
@@ -26356,7 +27667,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="553" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="553" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X553" s="8" t="s">
         <v>642</v>
       </c>
@@ -26394,7 +27705,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="554" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="554" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X554" s="8" t="s">
         <v>643</v>
       </c>
@@ -26432,7 +27743,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="555" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="555" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X555" s="8" t="s">
         <v>644</v>
       </c>
@@ -26470,7 +27781,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="556" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="556" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X556" s="8" t="s">
         <v>645</v>
       </c>
@@ -26508,7 +27819,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="557" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="557" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X557" s="8" t="s">
         <v>646</v>
       </c>
@@ -26546,7 +27857,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="558" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="558" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X558" s="8" t="s">
         <v>647</v>
       </c>
@@ -26584,7 +27895,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="559" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="559" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X559" s="8" t="s">
         <v>648</v>
       </c>
@@ -26622,7 +27933,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="560" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="560" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X560" s="8" t="s">
         <v>649</v>
       </c>
@@ -26660,7 +27971,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="561" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="561" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X561" s="8" t="s">
         <v>650</v>
       </c>
@@ -26698,7 +28009,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="562" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="562" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X562" s="8" t="s">
         <v>651</v>
       </c>
@@ -26736,7 +28047,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="563" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="563" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X563" s="8" t="s">
         <v>652</v>
       </c>
@@ -26774,7 +28085,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="564" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="564" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X564" s="8" t="s">
         <v>653</v>
       </c>
@@ -26812,7 +28123,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="565" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="565" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X565" s="8" t="s">
         <v>654</v>
       </c>
@@ -26850,7 +28161,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="566" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="566" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X566" s="8" t="s">
         <v>655</v>
       </c>
@@ -26888,7 +28199,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="567" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="567" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X567" s="8" t="s">
         <v>656</v>
       </c>
@@ -26926,7 +28237,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="568" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="568" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X568" s="8" t="s">
         <v>657</v>
       </c>
@@ -26964,7 +28275,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="569" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="569" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X569" s="8" t="s">
         <v>658</v>
       </c>
@@ -27002,7 +28313,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="570" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="570" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X570" s="8" t="s">
         <v>659</v>
       </c>
@@ -27040,7 +28351,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="571" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="571" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X571" s="8" t="s">
         <v>660</v>
       </c>
@@ -27078,7 +28389,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="572" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="572" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X572" s="8" t="s">
         <v>661</v>
       </c>
@@ -27116,7 +28427,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="573" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="573" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X573" s="8" t="s">
         <v>662</v>
       </c>
@@ -27154,7 +28465,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="574" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="574" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X574" s="8" t="s">
         <v>663</v>
       </c>
@@ -27192,7 +28503,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="575" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="575" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X575" s="8" t="s">
         <v>664</v>
       </c>
@@ -27230,7 +28541,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="576" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="576" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X576" s="8" t="s">
         <v>665</v>
       </c>
@@ -27268,7 +28579,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="577" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="577" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X577" s="8" t="s">
         <v>666</v>
       </c>
@@ -27306,7 +28617,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="578" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="578" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X578" s="8" t="s">
         <v>667</v>
       </c>
@@ -27344,7 +28655,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="579" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="579" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X579" s="8" t="s">
         <v>668</v>
       </c>
@@ -27382,7 +28693,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="580" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="580" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X580" s="8" t="s">
         <v>669</v>
       </c>
@@ -27420,7 +28731,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="581" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="581" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X581" s="8" t="s">
         <v>670</v>
       </c>
@@ -27458,7 +28769,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="582" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="582" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X582" s="8" t="s">
         <v>671</v>
       </c>
@@ -27496,7 +28807,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="583" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="583" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X583" s="8" t="s">
         <v>672</v>
       </c>
@@ -27534,7 +28845,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="584" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="584" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X584" s="8" t="s">
         <v>673</v>
       </c>
@@ -27572,7 +28883,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="585" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="585" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X585" s="8" t="s">
         <v>674</v>
       </c>
@@ -27610,7 +28921,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="586" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="586" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X586" s="8" t="s">
         <v>675</v>
       </c>
@@ -27648,7 +28959,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="587" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="587" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X587" s="8" t="s">
         <v>676</v>
       </c>
@@ -27686,7 +28997,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="588" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="588" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X588" s="8" t="s">
         <v>677</v>
       </c>
@@ -27724,7 +29035,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="589" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="589" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X589" s="8" t="s">
         <v>678</v>
       </c>
@@ -27762,7 +29073,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="590" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="590" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X590" s="8" t="s">
         <v>679</v>
       </c>
@@ -27800,7 +29111,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="591" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="591" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X591" s="8" t="s">
         <v>680</v>
       </c>
@@ -27838,7 +29149,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="592" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="592" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X592" s="8" t="s">
         <v>681</v>
       </c>
@@ -27876,7 +29187,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="593" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="593" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X593" s="8" t="s">
         <v>682</v>
       </c>
@@ -27914,7 +29225,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="594" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="594" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X594" s="8" t="s">
         <v>683</v>
       </c>
@@ -27952,7 +29263,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="595" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="595" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X595" s="8" t="s">
         <v>684</v>
       </c>
@@ -27990,7 +29301,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="596" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="596" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X596" s="8" t="s">
         <v>685</v>
       </c>
@@ -28028,7 +29339,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="597" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="597" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X597" s="8" t="s">
         <v>686</v>
       </c>
@@ -28066,7 +29377,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="598" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="598" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X598" s="8" t="s">
         <v>687</v>
       </c>
@@ -28104,7 +29415,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="599" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="599" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X599" s="8" t="s">
         <v>688</v>
       </c>
@@ -28142,7 +29453,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="600" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="600" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X600" s="8" t="s">
         <v>689</v>
       </c>
@@ -28180,7 +29491,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="601" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="601" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X601" s="8" t="s">
         <v>690</v>
       </c>
@@ -28218,7 +29529,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="602" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="602" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X602" s="8" t="s">
         <v>691</v>
       </c>
@@ -28256,7 +29567,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="603" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="603" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X603" s="8" t="s">
         <v>692</v>
       </c>
@@ -28294,7 +29605,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="604" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="604" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X604" s="8" t="s">
         <v>693</v>
       </c>
@@ -28332,7 +29643,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="605" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="605" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X605" s="8" t="s">
         <v>694</v>
       </c>
@@ -28370,7 +29681,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="606" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="606" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X606" s="8" t="s">
         <v>695</v>
       </c>
@@ -28408,7 +29719,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="607" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="607" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X607" s="8" t="s">
         <v>696</v>
       </c>
@@ -28446,7 +29757,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="608" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="608" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X608" s="8" t="s">
         <v>697</v>
       </c>
@@ -28484,7 +29795,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="609" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="609" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X609" s="8" t="s">
         <v>698</v>
       </c>
@@ -28522,7 +29833,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="610" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="610" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X610" s="8" t="s">
         <v>699</v>
       </c>
@@ -28560,7 +29871,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="611" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="611" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X611" s="8" t="s">
         <v>700</v>
       </c>
@@ -28598,7 +29909,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="612" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="612" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X612" s="8" t="s">
         <v>701</v>
       </c>
@@ -28636,7 +29947,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="613" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="613" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X613" s="8" t="s">
         <v>702</v>
       </c>
@@ -28674,7 +29985,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="614" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="614" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X614" s="8" t="s">
         <v>702</v>
       </c>
@@ -28712,7 +30023,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="615" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="615" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X615" s="8" t="s">
         <v>702</v>
       </c>
@@ -28750,7 +30061,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="616" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="616" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X616" s="8" t="s">
         <v>703</v>
       </c>
@@ -28788,7 +30099,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="617" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="617" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X617" s="8" t="s">
         <v>704</v>
       </c>
@@ -28826,7 +30137,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="618" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="618" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X618" s="8" t="s">
         <v>705</v>
       </c>
@@ -28864,7 +30175,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="619" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="619" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X619" s="8" t="s">
         <v>706</v>
       </c>
@@ -28902,7 +30213,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="620" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="620" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X620" s="8" t="s">
         <v>707</v>
       </c>
@@ -28940,7 +30251,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="621" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="621" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X621" s="8" t="s">
         <v>708</v>
       </c>
@@ -28978,7 +30289,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="622" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="622" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X622" s="8" t="s">
         <v>709</v>
       </c>
@@ -29016,7 +30327,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="623" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="623" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X623" s="8" t="s">
         <v>710</v>
       </c>
@@ -29054,7 +30365,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="624" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="624" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X624" s="8" t="s">
         <v>711</v>
       </c>
@@ -29092,7 +30403,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="625" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="625" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X625" s="8" t="s">
         <v>712</v>
       </c>
@@ -29130,7 +30441,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="626" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="626" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X626" s="8" t="s">
         <v>713</v>
       </c>
@@ -29168,7 +30479,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="627" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="627" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X627" s="8" t="s">
         <v>714</v>
       </c>
@@ -29206,7 +30517,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="628" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="628" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X628" s="8" t="s">
         <v>715</v>
       </c>
@@ -29244,7 +30555,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="629" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="629" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X629" s="8" t="s">
         <v>716</v>
       </c>
@@ -29282,7 +30593,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="630" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="630" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X630" s="8" t="s">
         <v>717</v>
       </c>
@@ -29320,7 +30631,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="631" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="631" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X631" s="8" t="s">
         <v>718</v>
       </c>
@@ -29358,7 +30669,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="632" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="632" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X632" s="8" t="s">
         <v>719</v>
       </c>
@@ -29396,7 +30707,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="633" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="633" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X633" s="8" t="s">
         <v>720</v>
       </c>
@@ -29434,7 +30745,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="634" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="634" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X634" s="8" t="s">
         <v>721</v>
       </c>
@@ -29472,7 +30783,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="635" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="635" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X635" s="8" t="s">
         <v>722</v>
       </c>
@@ -29510,7 +30821,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="636" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="636" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X636" s="8" t="s">
         <v>723</v>
       </c>
@@ -29548,7 +30859,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="637" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="637" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X637" s="8" t="s">
         <v>724</v>
       </c>
@@ -29586,7 +30897,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="638" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="638" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X638" s="8" t="s">
         <v>725</v>
       </c>
@@ -29624,7 +30935,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="639" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="639" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X639" s="8" t="s">
         <v>726</v>
       </c>
@@ -29662,7 +30973,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="640" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="640" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X640" s="8" t="s">
         <v>727</v>
       </c>
@@ -29700,7 +31011,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="641" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="641" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X641" s="8" t="s">
         <v>728</v>
       </c>
@@ -29738,7 +31049,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="642" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="642" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X642" s="8" t="s">
         <v>729</v>
       </c>
@@ -29776,7 +31087,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="643" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="643" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X643" s="8" t="s">
         <v>730</v>
       </c>
@@ -29814,7 +31125,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="644" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="644" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X644" s="8" t="s">
         <v>731</v>
       </c>
@@ -29852,7 +31163,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="645" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="645" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X645" s="8" t="s">
         <v>732</v>
       </c>
@@ -29890,7 +31201,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="646" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="646" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X646" s="8" t="s">
         <v>733</v>
       </c>
@@ -29928,7 +31239,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="647" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="647" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X647" s="8" t="s">
         <v>734</v>
       </c>
@@ -29966,7 +31277,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="648" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="648" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X648" s="8" t="s">
         <v>735</v>
       </c>
@@ -30004,7 +31315,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="649" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="649" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X649" s="8" t="s">
         <v>736</v>
       </c>
@@ -30042,7 +31353,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="650" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="650" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X650" s="8" t="s">
         <v>737</v>
       </c>
@@ -30080,7 +31391,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="651" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="651" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X651" s="8" t="s">
         <v>738</v>
       </c>
@@ -30118,7 +31429,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="652" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="652" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X652" s="8" t="s">
         <v>739</v>
       </c>
@@ -30156,7 +31467,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="653" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="653" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X653" s="8" t="s">
         <v>740</v>
       </c>
@@ -30194,7 +31505,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="654" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="654" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X654" s="8" t="s">
         <v>741</v>
       </c>
@@ -30232,7 +31543,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="655" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="655" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X655" s="8" t="s">
         <v>742</v>
       </c>
@@ -30270,7 +31581,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="656" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="656" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X656" s="8" t="s">
         <v>743</v>
       </c>
@@ -30308,7 +31619,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="657" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="657" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X657" s="8" t="s">
         <v>744</v>
       </c>
@@ -30346,7 +31657,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="658" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="658" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X658" s="8" t="s">
         <v>745</v>
       </c>
@@ -30384,7 +31695,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="659" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="659" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X659" s="8" t="s">
         <v>746</v>
       </c>
@@ -30422,7 +31733,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="660" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="660" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X660" s="8" t="s">
         <v>747</v>
       </c>
@@ -30460,7 +31771,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="661" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="661" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X661" s="8" t="s">
         <v>748</v>
       </c>
@@ -30498,7 +31809,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="662" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="662" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X662" s="8" t="s">
         <v>749</v>
       </c>
@@ -30536,7 +31847,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="663" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="663" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X663" s="8" t="s">
         <v>750</v>
       </c>
@@ -30574,7 +31885,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="664" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="664" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X664" s="8" t="s">
         <v>751</v>
       </c>
@@ -30612,7 +31923,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="665" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="665" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X665" s="8" t="s">
         <v>752</v>
       </c>
@@ -30650,7 +31961,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="666" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="666" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X666" s="8" t="s">
         <v>753</v>
       </c>
@@ -30688,7 +31999,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="667" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="667" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X667" s="8" t="s">
         <v>754</v>
       </c>
@@ -30726,7 +32037,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="668" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="668" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X668" s="8" t="s">
         <v>755</v>
       </c>
@@ -30764,7 +32075,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="669" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="669" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X669" s="8" t="s">
         <v>756</v>
       </c>
@@ -30802,7 +32113,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="670" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="670" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X670" s="8" t="s">
         <v>757</v>
       </c>
@@ -30840,7 +32151,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="671" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="671" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X671" s="8" t="s">
         <v>758</v>
       </c>
@@ -30878,7 +32189,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="672" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="672" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X672" s="8" t="s">
         <v>759</v>
       </c>
@@ -30916,7 +32227,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="673" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="673" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X673" s="8" t="s">
         <v>760</v>
       </c>
@@ -30954,7 +32265,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="674" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="674" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X674" s="8" t="s">
         <v>761</v>
       </c>
@@ -30992,7 +32303,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="675" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="675" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X675" s="8" t="s">
         <v>762</v>
       </c>
@@ -31030,7 +32341,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="676" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="676" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X676" s="8" t="s">
         <v>763</v>
       </c>
@@ -31068,7 +32379,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="677" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="677" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X677" s="8" t="s">
         <v>764</v>
       </c>
@@ -31106,7 +32417,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="678" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="678" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X678" s="8" t="s">
         <v>765</v>
       </c>
@@ -31144,7 +32455,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="679" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="679" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X679" s="8" t="s">
         <v>766</v>
       </c>
@@ -31182,7 +32493,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="680" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="680" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X680" s="8" t="s">
         <v>767</v>
       </c>
@@ -31220,7 +32531,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="681" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="681" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X681" s="8" t="s">
         <v>768</v>
       </c>
@@ -31258,7 +32569,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="682" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="682" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X682" s="8" t="s">
         <v>769</v>
       </c>
@@ -31296,7 +32607,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="683" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="683" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X683" s="8" t="s">
         <v>770</v>
       </c>
@@ -31334,7 +32645,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="684" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="684" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X684" s="8" t="s">
         <v>771</v>
       </c>
@@ -31372,7 +32683,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="685" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="685" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X685" s="8" t="s">
         <v>772</v>
       </c>
@@ -31410,7 +32721,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="686" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="686" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X686" s="8" t="s">
         <v>773</v>
       </c>
@@ -31448,7 +32759,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="687" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="687" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X687" s="8" t="s">
         <v>774</v>
       </c>
@@ -31486,7 +32797,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="688" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="688" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X688" s="8" t="s">
         <v>775</v>
       </c>
@@ -31524,7 +32835,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="689" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="689" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X689" s="8" t="s">
         <v>776</v>
       </c>
@@ -31562,7 +32873,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="690" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="690" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X690" s="8" t="s">
         <v>777</v>
       </c>
@@ -31600,7 +32911,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="691" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="691" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X691" s="8" t="s">
         <v>778</v>
       </c>
@@ -31638,7 +32949,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="692" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="692" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X692" s="8" t="s">
         <v>779</v>
       </c>
@@ -31676,7 +32987,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="693" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="693" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X693" s="8" t="s">
         <v>780</v>
       </c>
@@ -31714,7 +33025,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="694" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="694" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X694" s="8" t="s">
         <v>781</v>
       </c>
@@ -31752,7 +33063,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="695" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="695" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X695" s="8" t="s">
         <v>782</v>
       </c>
@@ -31790,7 +33101,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="696" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="696" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X696" s="8" t="s">
         <v>783</v>
       </c>
@@ -31828,7 +33139,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="697" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="697" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X697" s="8" t="s">
         <v>784</v>
       </c>
@@ -31866,7 +33177,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="698" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="698" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X698" s="8" t="s">
         <v>785</v>
       </c>
@@ -31904,7 +33215,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="699" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="699" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X699" s="8" t="s">
         <v>786</v>
       </c>
@@ -31942,7 +33253,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="700" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="700" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X700" s="8" t="s">
         <v>787</v>
       </c>
@@ -31980,7 +33291,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="701" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="701" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X701" s="8" t="s">
         <v>788</v>
       </c>
@@ -32018,7 +33329,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="702" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="702" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X702" s="8" t="s">
         <v>789</v>
       </c>
@@ -32056,7 +33367,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="703" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="703" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X703" s="8" t="s">
         <v>790</v>
       </c>
@@ -32094,7 +33405,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="704" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="704" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X704" s="8" t="s">
         <v>791</v>
       </c>
@@ -32132,7 +33443,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="705" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="705" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X705" s="8" t="s">
         <v>792</v>
       </c>
@@ -32170,7 +33481,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="706" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="706" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X706" s="8" t="s">
         <v>793</v>
       </c>
@@ -32208,7 +33519,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="707" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="707" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X707" s="8" t="s">
         <v>794</v>
       </c>
@@ -32246,7 +33557,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="708" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="708" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X708" s="8" t="s">
         <v>795</v>
       </c>
@@ -32284,7 +33595,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="709" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="709" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X709" s="8" t="s">
         <v>796</v>
       </c>
@@ -32322,7 +33633,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="710" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="710" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X710" s="8" t="s">
         <v>797</v>
       </c>
@@ -32360,7 +33671,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="711" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="711" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X711" s="8" t="s">
         <v>798</v>
       </c>
@@ -32398,7 +33709,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="712" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="712" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X712" s="8" t="s">
         <v>799</v>
       </c>
@@ -32436,7 +33747,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="713" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="713" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X713" s="8" t="s">
         <v>800</v>
       </c>
@@ -32474,7 +33785,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="714" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="714" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X714" s="8" t="s">
         <v>801</v>
       </c>
@@ -32512,7 +33823,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="715" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="715" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X715" s="8" t="s">
         <v>802</v>
       </c>
@@ -32550,7 +33861,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="716" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="716" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X716" s="8" t="s">
         <v>803</v>
       </c>
@@ -32588,7 +33899,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="717" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="717" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X717" s="8" t="s">
         <v>804</v>
       </c>
@@ -32626,7 +33937,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="718" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="718" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X718" s="8" t="s">
         <v>805</v>
       </c>
@@ -32664,7 +33975,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="719" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="719" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X719" s="8" t="s">
         <v>806</v>
       </c>
@@ -32702,7 +34013,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="720" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="720" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X720" s="8" t="s">
         <v>807</v>
       </c>
@@ -32740,7 +34051,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="721" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="721" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X721" s="8" t="s">
         <v>808</v>
       </c>
@@ -32778,7 +34089,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="722" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="722" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X722" s="8" t="s">
         <v>809</v>
       </c>
@@ -32816,7 +34127,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="723" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="723" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X723" s="8" t="s">
         <v>810</v>
       </c>
@@ -32854,7 +34165,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="724" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="724" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X724" s="8" t="s">
         <v>811</v>
       </c>
@@ -32892,7 +34203,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="725" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="725" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X725" s="8" t="s">
         <v>812</v>
       </c>
@@ -32930,7 +34241,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="726" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="726" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X726" s="8" t="s">
         <v>813</v>
       </c>
@@ -32968,7 +34279,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="727" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="727" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X727" s="8" t="s">
         <v>814</v>
       </c>
@@ -33006,7 +34317,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="728" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="728" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X728" s="8" t="s">
         <v>815</v>
       </c>
@@ -33044,7 +34355,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="729" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="729" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X729" s="8" t="s">
         <v>816</v>
       </c>
@@ -33082,7 +34393,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="730" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="730" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X730" s="8" t="s">
         <v>817</v>
       </c>
@@ -33120,7 +34431,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="731" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="731" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X731" s="8" t="s">
         <v>818</v>
       </c>
@@ -33158,7 +34469,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="732" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="732" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X732" s="8" t="s">
         <v>819</v>
       </c>
@@ -33196,7 +34507,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="733" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="733" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X733" s="8" t="s">
         <v>820</v>
       </c>
@@ -33234,7 +34545,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="734" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="734" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X734" s="8" t="s">
         <v>821</v>
       </c>
@@ -33272,7 +34583,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="735" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="735" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X735" s="8" t="s">
         <v>822</v>
       </c>
@@ -33310,7 +34621,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="736" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="736" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X736" s="8" t="s">
         <v>823</v>
       </c>
@@ -33348,7 +34659,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="737" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="737" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X737" s="8" t="s">
         <v>824</v>
       </c>
@@ -33386,7 +34697,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="738" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="738" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X738" s="8" t="s">
         <v>825</v>
       </c>
@@ -33424,7 +34735,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="739" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="739" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X739" s="8" t="s">
         <v>826</v>
       </c>
@@ -33462,7 +34773,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="740" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="740" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X740" s="8" t="s">
         <v>827</v>
       </c>
@@ -33500,7 +34811,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="741" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="741" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X741" s="8" t="s">
         <v>828</v>
       </c>
@@ -33538,7 +34849,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="742" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="742" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X742" s="8" t="s">
         <v>829</v>
       </c>
@@ -33576,7 +34887,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="743" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="743" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X743" s="8" t="s">
         <v>830</v>
       </c>
@@ -33614,7 +34925,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="744" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="744" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X744" s="8" t="s">
         <v>831</v>
       </c>
@@ -33652,7 +34963,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="745" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="745" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X745" s="8" t="s">
         <v>832</v>
       </c>
@@ -33690,7 +35001,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="746" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="746" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X746" s="8" t="s">
         <v>833</v>
       </c>
@@ -33728,7 +35039,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="747" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="747" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X747" s="8" t="s">
         <v>834</v>
       </c>
@@ -33766,7 +35077,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="748" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="748" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X748" s="8" t="s">
         <v>835</v>
       </c>
@@ -33804,7 +35115,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="749" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="749" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X749" s="8" t="s">
         <v>836</v>
       </c>
@@ -33842,7 +35153,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="750" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="750" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X750" s="8" t="s">
         <v>837</v>
       </c>
@@ -33880,7 +35191,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="751" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="751" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X751" s="8" t="s">
         <v>838</v>
       </c>
@@ -33918,7 +35229,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="752" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="752" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X752" s="8" t="s">
         <v>839</v>
       </c>
@@ -33956,7 +35267,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="753" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="753" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X753" s="8" t="s">
         <v>840</v>
       </c>
@@ -33994,7 +35305,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="754" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="754" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X754" s="8" t="s">
         <v>841</v>
       </c>
@@ -34032,7 +35343,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="755" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="755" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X755" s="8" t="s">
         <v>842</v>
       </c>
@@ -34070,7 +35381,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="756" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="756" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X756" s="8" t="s">
         <v>843</v>
       </c>
@@ -34108,7 +35419,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="757" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="757" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X757" s="8" t="s">
         <v>844</v>
       </c>
@@ -34146,7 +35457,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="758" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="758" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X758" s="8" t="s">
         <v>845</v>
       </c>
@@ -34184,7 +35495,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="759" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="759" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X759" s="8" t="s">
         <v>846</v>
       </c>
@@ -34222,7 +35533,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="760" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="760" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X760" s="8" t="s">
         <v>847</v>
       </c>
@@ -34260,7 +35571,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="761" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="761" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X761" s="8" t="s">
         <v>848</v>
       </c>
@@ -34298,7 +35609,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="762" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="762" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X762" s="8" t="s">
         <v>849</v>
       </c>
@@ -34336,7 +35647,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="763" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="763" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X763" s="8" t="s">
         <v>850</v>
       </c>
@@ -34374,7 +35685,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="764" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="764" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X764" s="8" t="s">
         <v>851</v>
       </c>
@@ -34412,7 +35723,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="765" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="765" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X765" s="8" t="s">
         <v>852</v>
       </c>
@@ -34450,7 +35761,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="766" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="766" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X766" s="8" t="s">
         <v>853</v>
       </c>
@@ -34488,7 +35799,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="767" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="767" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X767" s="8" t="s">
         <v>854</v>
       </c>
@@ -34526,7 +35837,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="768" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="768" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X768" s="8" t="s">
         <v>855</v>
       </c>
@@ -34564,7 +35875,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="769" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="769" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X769" s="8" t="s">
         <v>856</v>
       </c>
@@ -34602,7 +35913,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="770" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="770" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X770" s="8" t="s">
         <v>857</v>
       </c>
@@ -34640,7 +35951,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="771" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="771" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X771" s="8" t="s">
         <v>858</v>
       </c>
@@ -34678,7 +35989,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="772" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="772" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X772" s="8" t="s">
         <v>859</v>
       </c>
@@ -34716,7 +36027,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="773" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="773" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X773" s="8" t="s">
         <v>860</v>
       </c>
@@ -34754,7 +36065,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="774" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="774" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X774" s="8" t="s">
         <v>861</v>
       </c>
@@ -34792,7 +36103,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="775" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="775" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X775" s="8" t="s">
         <v>862</v>
       </c>
@@ -34830,7 +36141,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="776" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="776" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X776" s="8" t="s">
         <v>863</v>
       </c>
@@ -34868,7 +36179,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="777" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="777" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X777" s="8" t="s">
         <v>864</v>
       </c>
@@ -34906,7 +36217,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="778" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="778" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X778" s="8" t="s">
         <v>865</v>
       </c>
@@ -34944,7 +36255,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="779" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="779" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X779" s="8" t="s">
         <v>866</v>
       </c>
@@ -34982,7 +36293,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="780" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="780" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X780" s="8" t="s">
         <v>867</v>
       </c>
@@ -35020,7 +36331,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="781" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="781" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X781" s="8" t="s">
         <v>868</v>
       </c>
@@ -35058,7 +36369,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="782" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="782" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X782" s="8" t="s">
         <v>869</v>
       </c>
@@ -35096,7 +36407,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="783" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="783" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X783" s="8" t="s">
         <v>870</v>
       </c>
@@ -35134,7 +36445,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="784" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="784" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X784" s="8" t="s">
         <v>871</v>
       </c>
@@ -35172,7 +36483,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="785" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="785" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X785" s="8" t="s">
         <v>872</v>
       </c>
@@ -35210,7 +36521,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="786" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="786" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X786" s="8" t="s">
         <v>873</v>
       </c>
@@ -35248,7 +36559,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="787" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="787" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X787" s="8" t="s">
         <v>874</v>
       </c>
@@ -35286,7 +36597,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="788" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="788" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X788" s="8" t="s">
         <v>875</v>
       </c>
@@ -35324,7 +36635,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="789" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="789" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X789" s="8" t="s">
         <v>876</v>
       </c>
@@ -35362,7 +36673,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="790" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="790" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X790" s="8" t="s">
         <v>877</v>
       </c>
@@ -35400,7 +36711,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="791" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="791" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X791" s="8" t="s">
         <v>878</v>
       </c>
@@ -35438,7 +36749,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="792" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="792" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X792" s="8" t="s">
         <v>879</v>
       </c>
@@ -35476,7 +36787,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="793" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="793" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X793" s="8" t="s">
         <v>880</v>
       </c>
@@ -35514,7 +36825,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="794" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="794" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X794" s="8" t="s">
         <v>881</v>
       </c>
@@ -35552,7 +36863,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="795" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="795" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X795" s="8" t="s">
         <v>882</v>
       </c>
@@ -35590,7 +36901,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="796" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="796" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X796" s="8" t="s">
         <v>883</v>
       </c>
@@ -35628,7 +36939,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="797" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="797" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X797" s="8" t="s">
         <v>884</v>
       </c>
@@ -35666,7 +36977,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="798" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="798" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X798" s="8" t="s">
         <v>885</v>
       </c>
@@ -35704,7 +37015,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="799" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="799" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X799" s="8" t="s">
         <v>886</v>
       </c>
@@ -35742,7 +37053,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="800" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="800" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X800" s="8" t="s">
         <v>887</v>
       </c>
@@ -35780,7 +37091,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="801" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="801" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X801" s="8" t="s">
         <v>888</v>
       </c>
@@ -35818,7 +37129,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="802" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="802" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X802" s="8" t="s">
         <v>889</v>
       </c>
@@ -35856,7 +37167,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="803" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="803" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X803" s="8" t="s">
         <v>890</v>
       </c>
@@ -35894,7 +37205,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="804" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="804" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X804" s="8" t="s">
         <v>891</v>
       </c>
@@ -35932,7 +37243,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="805" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="805" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X805" s="8" t="s">
         <v>892</v>
       </c>
@@ -35970,7 +37281,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="806" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="806" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X806" s="8" t="s">
         <v>893</v>
       </c>
@@ -36008,7 +37319,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="807" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="807" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X807" s="8" t="s">
         <v>894</v>
       </c>
@@ -36046,7 +37357,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="808" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="808" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X808" s="8" t="s">
         <v>895</v>
       </c>
@@ -36084,7 +37395,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="809" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="809" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X809" s="8" t="s">
         <v>896</v>
       </c>
@@ -36122,7 +37433,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="810" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="810" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X810" s="8" t="s">
         <v>897</v>
       </c>
@@ -36160,7 +37471,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="811" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="811" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X811" s="8" t="s">
         <v>898</v>
       </c>
@@ -36198,7 +37509,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="812" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="812" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X812" s="8" t="s">
         <v>899</v>
       </c>
@@ -36236,7 +37547,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="813" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="813" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X813" s="8" t="s">
         <v>900</v>
       </c>
@@ -36274,7 +37585,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="814" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="814" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X814" s="8" t="s">
         <v>901</v>
       </c>
@@ -36312,7 +37623,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="815" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="815" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X815" s="8" t="s">
         <v>902</v>
       </c>
@@ -36350,7 +37661,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="816" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="816" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X816" s="8" t="s">
         <v>903</v>
       </c>
@@ -36388,7 +37699,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="817" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="817" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X817" s="8" t="s">
         <v>904</v>
       </c>
@@ -36426,7 +37737,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="818" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="818" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X818" s="8" t="s">
         <v>905</v>
       </c>
@@ -36464,7 +37775,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="819" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="819" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X819" s="8" t="s">
         <v>906</v>
       </c>
@@ -36502,7 +37813,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="820" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="820" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X820" s="8" t="s">
         <v>907</v>
       </c>
@@ -36540,7 +37851,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="821" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="821" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X821" s="8" t="s">
         <v>908</v>
       </c>
@@ -36578,7 +37889,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="822" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="822" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X822" s="8" t="s">
         <v>909</v>
       </c>
@@ -36616,7 +37927,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="823" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="823" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X823" s="8" t="s">
         <v>910</v>
       </c>
@@ -36654,7 +37965,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="824" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="824" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X824" s="8" t="s">
         <v>911</v>
       </c>
@@ -36692,7 +38003,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="825" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="825" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X825" s="8" t="s">
         <v>912</v>
       </c>
@@ -36730,7 +38041,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="826" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="826" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X826" s="8" t="s">
         <v>913</v>
       </c>
@@ -36768,7 +38079,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="827" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="827" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X827" s="8" t="s">
         <v>914</v>
       </c>
@@ -36806,7 +38117,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="828" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="828" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X828" s="8" t="s">
         <v>915</v>
       </c>
@@ -36844,7 +38155,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="829" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="829" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X829" s="8" t="s">
         <v>916</v>
       </c>
@@ -36882,7 +38193,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="830" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="830" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X830" s="8" t="s">
         <v>917</v>
       </c>
@@ -36920,7 +38231,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="831" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="831" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X831" s="8" t="s">
         <v>918</v>
       </c>
@@ -36958,7 +38269,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="832" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="832" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X832" s="8" t="s">
         <v>919</v>
       </c>
@@ -36996,7 +38307,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="833" spans="24:35" x14ac:dyDescent="0.2">
+    <row r="833" spans="24:35" x14ac:dyDescent="0.25">
       <c r="X833" s="8" t="s">
         <v>920</v>
       </c>

--- a/Data/Export/公式.xlsx
+++ b/Data/Export/公式.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A66C91-99A9-4C47-B1E5-64207B093792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FF4564-F881-404C-82B7-C550FB01778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="912" yWindow="1824" windowWidth="25704" windowHeight="13476" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="城市收入" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9338" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9342" uniqueCount="1063">
   <si>
     <t>农业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3391,6 +3391,10 @@
   </si>
   <si>
     <t>巡查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4746,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9783B251-0D13-4DDB-9310-3AD2D5332100}">
   <dimension ref="A1:AI833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6156,7 +6160,7 @@
       <c r="I24" t="s">
         <v>1056</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" s="27" t="s">
         <v>1053</v>
       </c>
       <c r="X24" s="8" t="s">
@@ -6272,7 +6276,7 @@
         <v>161</v>
       </c>
       <c r="M26" s="26"/>
-      <c r="S26" t="s">
+      <c r="S26" s="27" t="s">
         <v>1060</v>
       </c>
       <c r="X26" s="8" t="s">
@@ -6322,7 +6326,9 @@
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
+      <c r="F27" t="s">
+        <v>1062</v>
+      </c>
       <c r="J27" s="26"/>
       <c r="K27" s="26" t="s">
         <v>1058</v>
@@ -6332,12 +6338,17 @@
       </c>
       <c r="M27" s="25"/>
       <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
+      <c r="O27" t="s">
+        <v>1062</v>
+      </c>
       <c r="Q27" s="26" t="s">
         <v>1059</v>
       </c>
       <c r="R27">
         <v>300</v>
+      </c>
+      <c r="U27" t="s">
+        <v>1062</v>
       </c>
       <c r="X27" s="8" t="s">
         <v>119</v>
@@ -6394,7 +6405,9 @@
         <f>INT((($A$26*8.567-1) + 1500 ) *D28/ 1000)</f>
         <v>1726</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="25">
+        <v>1726</v>
+      </c>
       <c r="J28" s="26">
         <v>0.5</v>
       </c>
@@ -6412,7 +6425,9 @@
         <f>INT((($L$26*15) + 1500 ) *M28/ 1000)</f>
         <v>1957</v>
       </c>
-      <c r="O28" s="25"/>
+      <c r="O28" s="25">
+        <v>1957</v>
+      </c>
       <c r="Q28" s="26">
         <v>1</v>
       </c>
@@ -6496,7 +6511,7 @@
         <v>158</v>
       </c>
       <c r="N29" s="25">
-        <f t="shared" ref="N29:N48" si="3">INT((($L$26*15) + 1500 ) *M29/ 1000)</f>
+        <f t="shared" ref="N29:N47" si="3">INT((($L$26*15) + 1500 ) *M29/ 1000)</f>
         <v>618</v>
       </c>
       <c r="O29" s="25">
@@ -8322,7 +8337,7 @@
       </c>
     </row>
     <row r="52" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
+      <c r="D52" s="27" t="s">
         <v>1061</v>
       </c>
       <c r="X52" s="8" t="s">
@@ -8368,6 +8383,9 @@
       </c>
       <c r="C53">
         <v>300</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1062</v>
       </c>
       <c r="X53" s="8" t="s">
         <v>145</v>

--- a/Data/Export/公式.xlsx
+++ b/Data/Export/公式.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FF4564-F881-404C-82B7-C550FB01778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2951BB66-2181-41AD-8511-580791DD1DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4750,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9783B251-0D13-4DDB-9310-3AD2D5332100}">
   <dimension ref="A1:AI833"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6418,12 +6418,12 @@
         <v>1</v>
       </c>
       <c r="M28" s="26">
-        <f>INT((K28 )^ ($A$28/L28) * 50)</f>
-        <v>500</v>
+        <f>INT((K28 )^ ($A$28/L28) * 80)</f>
+        <v>800</v>
       </c>
       <c r="N28" s="25">
         <f>INT((($L$26*15) + 1500 ) *M28/ 1000)</f>
-        <v>1957</v>
+        <v>3132</v>
       </c>
       <c r="O28" s="25">
         <v>1957</v>
@@ -6516,7 +6516,7 @@
       </c>
       <c r="O29" s="25">
         <f>N28+N29</f>
-        <v>2575</v>
+        <v>3750</v>
       </c>
       <c r="Q29" s="26">
         <v>2</v>
@@ -6607,7 +6607,7 @@
       </c>
       <c r="O30" s="25">
         <f>O29+N30</f>
-        <v>2993</v>
+        <v>4168</v>
       </c>
       <c r="Q30" s="26">
         <v>3</v>
@@ -6663,58 +6663,18 @@
     </row>
     <row r="31" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
-      <c r="B31" s="26">
-        <v>100</v>
-      </c>
-      <c r="C31" s="26">
-        <v>4</v>
-      </c>
-      <c r="D31" s="26">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="E31" s="25">
-        <f t="shared" si="1"/>
-        <v>305</v>
-      </c>
-      <c r="F31" s="25">
-        <f t="shared" ref="F31:F47" si="6">F30+E31</f>
-        <v>2945</v>
-      </c>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
       <c r="J31" s="26"/>
-      <c r="K31" s="26">
-        <v>100</v>
-      </c>
-      <c r="L31" s="26">
-        <v>4</v>
-      </c>
-      <c r="M31" s="26">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="N31" s="25">
-        <f t="shared" si="3"/>
-        <v>344</v>
-      </c>
-      <c r="O31" s="25">
-        <f t="shared" ref="O31:O47" si="7">O30+N31</f>
-        <v>3337</v>
-      </c>
-      <c r="Q31" s="26">
-        <v>4</v>
-      </c>
-      <c r="S31">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="T31">
-        <f t="shared" ref="T31:T47" si="8">T30+S31</f>
-        <v>25</v>
-      </c>
-      <c r="U31">
-        <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="25"/>
+      <c r="Q31" s="26"/>
       <c r="X31" s="8" t="s">
         <v>123</v>
       </c>
@@ -6754,58 +6714,18 @@
     </row>
     <row r="32" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
-      <c r="B32" s="26">
-        <v>100</v>
-      </c>
-      <c r="C32" s="26">
-        <v>5</v>
-      </c>
-      <c r="D32" s="26">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="E32" s="25">
-        <f t="shared" si="1"/>
-        <v>273</v>
-      </c>
-      <c r="F32" s="25">
-        <f t="shared" si="6"/>
-        <v>3218</v>
-      </c>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
       <c r="J32" s="26"/>
-      <c r="K32" s="26">
-        <v>100</v>
-      </c>
-      <c r="L32" s="26">
-        <v>5</v>
-      </c>
-      <c r="M32" s="26">
-        <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="N32" s="25">
-        <f t="shared" si="3"/>
-        <v>309</v>
-      </c>
-      <c r="O32" s="25">
-        <f t="shared" si="7"/>
-        <v>3646</v>
-      </c>
-      <c r="Q32" s="26">
-        <v>5</v>
-      </c>
-      <c r="S32">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="8"/>
-        <v>26</v>
-      </c>
-      <c r="U32">
-        <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="25"/>
+      <c r="Q32" s="26"/>
       <c r="X32" s="8" t="s">
         <v>124</v>
       </c>
@@ -6845,58 +6765,18 @@
     </row>
     <row r="33" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
-      <c r="B33" s="26">
-        <v>100</v>
-      </c>
-      <c r="C33" s="26">
-        <v>6</v>
-      </c>
-      <c r="D33" s="26">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="E33" s="25">
-        <f t="shared" si="1"/>
-        <v>253</v>
-      </c>
-      <c r="F33" s="25">
-        <f t="shared" si="6"/>
-        <v>3471</v>
-      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
       <c r="J33" s="26"/>
-      <c r="K33" s="26">
-        <v>100</v>
-      </c>
-      <c r="L33" s="26">
-        <v>6</v>
-      </c>
-      <c r="M33" s="26">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
-      <c r="N33" s="25">
-        <f t="shared" si="3"/>
-        <v>285</v>
-      </c>
-      <c r="O33" s="25">
-        <f t="shared" si="7"/>
-        <v>3931</v>
-      </c>
-      <c r="Q33" s="26">
-        <v>6</v>
-      </c>
-      <c r="S33">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="U33">
-        <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="25"/>
+      <c r="Q33" s="26"/>
       <c r="X33" s="8" t="s">
         <v>125</v>
       </c>
@@ -6936,58 +6816,18 @@
     </row>
     <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
-      <c r="B34" s="26">
-        <v>100</v>
-      </c>
-      <c r="C34" s="26">
-        <v>7</v>
-      </c>
-      <c r="D34" s="26">
-        <f t="shared" si="0"/>
-        <v>83</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="1"/>
-        <v>238</v>
-      </c>
-      <c r="F34" s="25">
-        <f t="shared" si="6"/>
-        <v>3709</v>
-      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
       <c r="J34" s="26"/>
-      <c r="K34" s="26">
-        <v>100</v>
-      </c>
-      <c r="L34" s="26">
-        <v>7</v>
-      </c>
-      <c r="M34" s="26">
-        <f t="shared" si="2"/>
-        <v>69</v>
-      </c>
-      <c r="N34" s="25">
-        <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-      <c r="O34" s="25">
-        <f t="shared" si="7"/>
-        <v>4201</v>
-      </c>
-      <c r="Q34" s="26">
-        <v>7</v>
-      </c>
-      <c r="S34">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="8"/>
-        <v>28</v>
-      </c>
-      <c r="U34">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="25"/>
+      <c r="Q34" s="26"/>
       <c r="X34" s="8" t="s">
         <v>126</v>
       </c>
@@ -7026,57 +6866,17 @@
       </c>
     </row>
     <row r="35" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B35" s="26">
-        <v>100</v>
-      </c>
-      <c r="C35" s="26">
-        <v>8</v>
-      </c>
-      <c r="D35" s="26">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" si="1"/>
-        <v>230</v>
-      </c>
-      <c r="F35" s="25">
-        <f t="shared" si="6"/>
-        <v>3939</v>
-      </c>
-      <c r="K35" s="26">
-        <v>100</v>
-      </c>
-      <c r="L35" s="26">
-        <v>8</v>
-      </c>
-      <c r="M35" s="26">
-        <f t="shared" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="N35" s="25">
-        <f t="shared" si="3"/>
-        <v>258</v>
-      </c>
-      <c r="O35" s="25">
-        <f t="shared" si="7"/>
-        <v>4459</v>
-      </c>
-      <c r="Q35" s="26">
-        <v>8</v>
-      </c>
-      <c r="S35">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="8"/>
-        <v>29</v>
-      </c>
-      <c r="U35">
-        <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="25"/>
+      <c r="Q35" s="26"/>
       <c r="X35" s="8" t="s">
         <v>127</v>
       </c>
@@ -7115,57 +6915,17 @@
       </c>
     </row>
     <row r="36" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B36" s="26">
-        <v>100</v>
-      </c>
-      <c r="C36" s="26">
-        <v>9</v>
-      </c>
-      <c r="D36" s="26">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="E36" s="25">
-        <f t="shared" si="1"/>
-        <v>221</v>
-      </c>
-      <c r="F36" s="25">
-        <f t="shared" si="6"/>
-        <v>4160</v>
-      </c>
-      <c r="K36" s="26">
-        <v>100</v>
-      </c>
-      <c r="L36" s="26">
-        <v>9</v>
-      </c>
-      <c r="M36" s="26">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="N36" s="25">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="O36" s="25">
-        <f t="shared" si="7"/>
-        <v>4709</v>
-      </c>
-      <c r="Q36" s="26">
-        <v>9</v>
-      </c>
-      <c r="S36">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="8"/>
-        <v>30</v>
-      </c>
-      <c r="U36">
-        <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="25"/>
+      <c r="Q36" s="26"/>
       <c r="X36" s="8" t="s">
         <v>128</v>
       </c>
@@ -7204,57 +6964,17 @@
       </c>
     </row>
     <row r="37" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B37" s="26">
-        <v>100</v>
-      </c>
-      <c r="C37" s="26">
-        <v>10</v>
-      </c>
-      <c r="D37" s="26">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="E37" s="25">
-        <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-      <c r="F37" s="25">
-        <f t="shared" si="6"/>
-        <v>4375</v>
-      </c>
-      <c r="K37" s="26">
-        <v>100</v>
-      </c>
-      <c r="L37" s="26">
-        <v>10</v>
-      </c>
-      <c r="M37" s="26">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="N37" s="25">
-        <f t="shared" si="3"/>
-        <v>242</v>
-      </c>
-      <c r="O37" s="25">
-        <f t="shared" si="7"/>
-        <v>4951</v>
-      </c>
-      <c r="Q37" s="26">
-        <v>10</v>
-      </c>
-      <c r="S37">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="8"/>
-        <v>31</v>
-      </c>
-      <c r="U37">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="Q37" s="26"/>
       <c r="X37" s="8" t="s">
         <v>129</v>
       </c>
@@ -7293,57 +7013,17 @@
       </c>
     </row>
     <row r="38" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B38" s="26">
-        <v>100</v>
-      </c>
-      <c r="C38" s="26">
-        <v>11</v>
-      </c>
-      <c r="D38" s="26">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="E38" s="25">
-        <f t="shared" si="1"/>
-        <v>210</v>
-      </c>
-      <c r="F38" s="25">
-        <f t="shared" si="6"/>
-        <v>4585</v>
-      </c>
-      <c r="K38" s="26">
-        <v>100</v>
-      </c>
-      <c r="L38" s="26">
-        <v>11</v>
-      </c>
-      <c r="M38" s="26">
-        <f t="shared" si="2"/>
-        <v>61</v>
-      </c>
-      <c r="N38" s="25">
-        <f t="shared" si="3"/>
-        <v>238</v>
-      </c>
-      <c r="O38" s="25">
-        <f t="shared" si="7"/>
-        <v>5189</v>
-      </c>
-      <c r="Q38" s="26">
-        <v>11</v>
-      </c>
-      <c r="S38">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="U38">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="Q38" s="26"/>
       <c r="X38" s="8" t="s">
         <v>130</v>
       </c>
@@ -7382,57 +7062,17 @@
       </c>
     </row>
     <row r="39" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B39" s="26">
-        <v>100</v>
-      </c>
-      <c r="C39" s="26">
-        <v>12</v>
-      </c>
-      <c r="D39" s="26">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="E39" s="25">
-        <f t="shared" si="1"/>
-        <v>207</v>
-      </c>
-      <c r="F39" s="25">
-        <f t="shared" si="6"/>
-        <v>4792</v>
-      </c>
-      <c r="K39" s="26">
-        <v>100</v>
-      </c>
-      <c r="L39" s="26">
-        <v>12</v>
-      </c>
-      <c r="M39" s="26">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="N39" s="25">
-        <f t="shared" si="3"/>
-        <v>234</v>
-      </c>
-      <c r="O39" s="25">
-        <f t="shared" si="7"/>
-        <v>5423</v>
-      </c>
-      <c r="Q39" s="26">
-        <v>12</v>
-      </c>
-      <c r="S39">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="8"/>
-        <v>33</v>
-      </c>
-      <c r="U39">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="Q39" s="26"/>
       <c r="X39" s="8" t="s">
         <v>131</v>
       </c>
@@ -7471,57 +7111,17 @@
       </c>
     </row>
     <row r="40" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B40" s="26">
-        <v>100</v>
-      </c>
-      <c r="C40" s="26">
-        <v>13</v>
-      </c>
-      <c r="D40" s="26">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-      <c r="E40" s="25">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-      <c r="F40" s="25">
-        <f t="shared" si="6"/>
-        <v>4996</v>
-      </c>
-      <c r="K40" s="26">
-        <v>100</v>
-      </c>
-      <c r="L40" s="26">
-        <v>13</v>
-      </c>
-      <c r="M40" s="26">
-        <f t="shared" si="2"/>
-        <v>59</v>
-      </c>
-      <c r="N40" s="25">
-        <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="O40" s="25">
-        <f t="shared" si="7"/>
-        <v>5653</v>
-      </c>
-      <c r="Q40" s="26">
-        <v>13</v>
-      </c>
-      <c r="S40">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="8"/>
-        <v>34</v>
-      </c>
-      <c r="U40">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="Q40" s="26"/>
       <c r="X40" s="8" t="s">
         <v>132</v>
       </c>
@@ -7560,57 +7160,17 @@
       </c>
     </row>
     <row r="41" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B41" s="26">
-        <v>100</v>
-      </c>
-      <c r="C41" s="26">
-        <v>14</v>
-      </c>
-      <c r="D41" s="26">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E41" s="25">
-        <f t="shared" si="1"/>
-        <v>201</v>
-      </c>
-      <c r="F41" s="25">
-        <f t="shared" si="6"/>
-        <v>5197</v>
-      </c>
-      <c r="K41" s="26">
-        <v>100</v>
-      </c>
-      <c r="L41" s="26">
-        <v>14</v>
-      </c>
-      <c r="M41" s="26">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="N41" s="25">
-        <f t="shared" si="3"/>
-        <v>227</v>
-      </c>
-      <c r="O41" s="25">
-        <f t="shared" si="7"/>
-        <v>5880</v>
-      </c>
-      <c r="Q41" s="26">
-        <v>14</v>
-      </c>
-      <c r="S41">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="U41">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="Q41" s="26"/>
       <c r="X41" s="8" t="s">
         <v>133</v>
       </c>
@@ -7649,57 +7209,17 @@
       </c>
     </row>
     <row r="42" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B42" s="26">
-        <v>100</v>
-      </c>
-      <c r="C42" s="26">
-        <v>15</v>
-      </c>
-      <c r="D42" s="26">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E42" s="25">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="F42" s="25">
-        <f t="shared" si="6"/>
-        <v>5395</v>
-      </c>
-      <c r="K42" s="26">
-        <v>100</v>
-      </c>
-      <c r="L42" s="26">
-        <v>15</v>
-      </c>
-      <c r="M42" s="26">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="N42" s="25">
-        <f t="shared" si="3"/>
-        <v>227</v>
-      </c>
-      <c r="O42" s="25">
-        <f t="shared" si="7"/>
-        <v>6107</v>
-      </c>
-      <c r="Q42" s="26">
-        <v>15</v>
-      </c>
-      <c r="S42">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="8"/>
-        <v>36</v>
-      </c>
-      <c r="U42">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="Q42" s="26"/>
       <c r="X42" s="8" t="s">
         <v>134</v>
       </c>
@@ -7738,57 +7258,17 @@
       </c>
     </row>
     <row r="43" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B43" s="26">
-        <v>100</v>
-      </c>
-      <c r="C43" s="26">
-        <v>16</v>
-      </c>
-      <c r="D43" s="26">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="E43" s="25">
-        <f t="shared" si="1"/>
-        <v>198</v>
-      </c>
-      <c r="F43" s="25">
-        <f t="shared" si="6"/>
-        <v>5593</v>
-      </c>
-      <c r="K43" s="26">
-        <v>100</v>
-      </c>
-      <c r="L43" s="26">
-        <v>16</v>
-      </c>
-      <c r="M43" s="26">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="N43" s="25">
-        <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="O43" s="25">
-        <f t="shared" si="7"/>
-        <v>6330</v>
-      </c>
-      <c r="Q43" s="26">
-        <v>16</v>
-      </c>
-      <c r="S43">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="8"/>
-        <v>37</v>
-      </c>
-      <c r="U43">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="25"/>
+      <c r="Q43" s="26"/>
       <c r="X43" s="8" t="s">
         <v>135</v>
       </c>
@@ -7827,57 +7307,17 @@
       </c>
     </row>
     <row r="44" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B44" s="26">
-        <v>100</v>
-      </c>
-      <c r="C44" s="26">
-        <v>17</v>
-      </c>
-      <c r="D44" s="26">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E44" s="25">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="F44" s="25">
-        <f t="shared" si="6"/>
-        <v>5788</v>
-      </c>
-      <c r="K44" s="26">
-        <v>100</v>
-      </c>
-      <c r="L44" s="26">
-        <v>17</v>
-      </c>
-      <c r="M44" s="26">
-        <f t="shared" si="2"/>
-        <v>57</v>
-      </c>
-      <c r="N44" s="25">
-        <f t="shared" si="3"/>
-        <v>223</v>
-      </c>
-      <c r="O44" s="25">
-        <f t="shared" si="7"/>
-        <v>6553</v>
-      </c>
-      <c r="Q44" s="26">
-        <v>17</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="8"/>
-        <v>38</v>
-      </c>
-      <c r="U44">
-        <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="25"/>
+      <c r="Q44" s="26"/>
       <c r="X44" s="8" t="s">
         <v>136</v>
       </c>
@@ -7916,57 +7356,17 @@
       </c>
     </row>
     <row r="45" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B45" s="26">
-        <v>100</v>
-      </c>
-      <c r="C45" s="26">
-        <v>18</v>
-      </c>
-      <c r="D45" s="26">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="E45" s="25">
-        <f t="shared" si="1"/>
-        <v>195</v>
-      </c>
-      <c r="F45" s="25">
-        <f t="shared" si="6"/>
-        <v>5983</v>
-      </c>
-      <c r="K45" s="26">
-        <v>100</v>
-      </c>
-      <c r="L45" s="26">
-        <v>18</v>
-      </c>
-      <c r="M45" s="26">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="N45" s="25">
-        <f t="shared" si="3"/>
-        <v>219</v>
-      </c>
-      <c r="O45" s="25">
-        <f t="shared" si="7"/>
-        <v>6772</v>
-      </c>
-      <c r="Q45" s="26">
-        <v>18</v>
-      </c>
-      <c r="S45">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
-      <c r="U45">
-        <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="25"/>
+      <c r="Q45" s="26"/>
       <c r="X45" s="8" t="s">
         <v>137</v>
       </c>
@@ -8005,57 +7405,17 @@
       </c>
     </row>
     <row r="46" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B46" s="26">
-        <v>100</v>
-      </c>
-      <c r="C46" s="26">
-        <v>19</v>
-      </c>
-      <c r="D46" s="26">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="E46" s="25">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="F46" s="25">
-        <f t="shared" si="6"/>
-        <v>6175</v>
-      </c>
-      <c r="K46" s="26">
-        <v>100</v>
-      </c>
-      <c r="L46" s="26">
-        <v>19</v>
-      </c>
-      <c r="M46" s="26">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="N46" s="25">
-        <f t="shared" si="3"/>
-        <v>219</v>
-      </c>
-      <c r="O46" s="25">
-        <f t="shared" si="7"/>
-        <v>6991</v>
-      </c>
-      <c r="Q46" s="26">
-        <v>19</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="8"/>
-        <v>40</v>
-      </c>
-      <c r="U46">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="Q46" s="26"/>
       <c r="X46" s="8" t="s">
         <v>138</v>
       </c>
@@ -8094,57 +7454,17 @@
       </c>
     </row>
     <row r="47" spans="1:35" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B47" s="26">
-        <v>100</v>
-      </c>
-      <c r="C47" s="26">
-        <v>20</v>
-      </c>
-      <c r="D47" s="26">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="E47" s="25">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="F47" s="25">
-        <f t="shared" si="6"/>
-        <v>6367</v>
-      </c>
-      <c r="K47" s="26">
-        <v>100</v>
-      </c>
-      <c r="L47" s="26">
-        <v>20</v>
-      </c>
-      <c r="M47" s="26">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="N47" s="25">
-        <f t="shared" si="3"/>
-        <v>219</v>
-      </c>
-      <c r="O47" s="25">
-        <f t="shared" si="7"/>
-        <v>7210</v>
-      </c>
-      <c r="Q47" s="26">
-        <v>20</v>
-      </c>
-      <c r="S47">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="8"/>
-        <v>41</v>
-      </c>
-      <c r="U47">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="Q47" s="26"/>
       <c r="X47" s="8" t="s">
         <v>139</v>
       </c>
@@ -8481,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="D55">
-        <f t="shared" ref="D55:D73" si="9">INT(($R$27^(0.5 / B55))  )</f>
+        <f t="shared" ref="D55:D73" si="6">INT(($R$27^(0.5 / B55))  )</f>
         <v>4</v>
       </c>
       <c r="E55">
@@ -8489,7 +7809,7 @@
         <v>21</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55:F73" si="10">E55 - 10</f>
+        <f t="shared" ref="F55:F73" si="7">E55 - 10</f>
         <v>11</v>
       </c>
       <c r="X55" s="8" t="s">
@@ -8534,7 +7854,7 @@
         <v>3</v>
       </c>
       <c r="D56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E56">
@@ -8542,7 +7862,7 @@
         <v>23</v>
       </c>
       <c r="F56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="X56" s="8" t="s">
@@ -8587,15 +7907,15 @@
         <v>4</v>
       </c>
       <c r="D57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="E57">
-        <f t="shared" ref="E57:E73" si="11">E56+D57</f>
+        <f t="shared" ref="E57:E73" si="8">E56+D57</f>
         <v>25</v>
       </c>
       <c r="F57">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="X57" s="8" t="s">
@@ -8640,15 +7960,15 @@
         <v>5</v>
       </c>
       <c r="D58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="F58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="X58" s="8" t="s">
@@ -8693,15 +8013,15 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>27</v>
       </c>
       <c r="F59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="X59" s="8" t="s">
@@ -8746,15 +8066,15 @@
         <v>7</v>
       </c>
       <c r="D60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
       <c r="F60">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="X60" s="8" t="s">
@@ -8799,15 +8119,15 @@
         <v>8</v>
       </c>
       <c r="D61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E61">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>29</v>
       </c>
       <c r="F61">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="X61" s="8" t="s">
@@ -8852,15 +8172,15 @@
         <v>9</v>
       </c>
       <c r="D62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E62">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="F62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="X62" s="8" t="s">
@@ -8905,15 +8225,15 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E63">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>31</v>
       </c>
       <c r="F63">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="X63" s="8" t="s">
@@ -8958,15 +8278,15 @@
         <v>11</v>
       </c>
       <c r="D64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E64">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>32</v>
       </c>
       <c r="F64">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="X64" s="8" t="s">
@@ -9011,15 +8331,15 @@
         <v>12</v>
       </c>
       <c r="D65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>33</v>
       </c>
       <c r="F65">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="X65" s="8" t="s">
@@ -9064,15 +8384,15 @@
         <v>13</v>
       </c>
       <c r="D66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E66">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="F66">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="X66" s="8" t="s">
@@ -9117,15 +8437,15 @@
         <v>14</v>
       </c>
       <c r="D67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="F67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="X67" s="8" t="s">
@@ -9170,15 +8490,15 @@
         <v>15</v>
       </c>
       <c r="D68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="F68">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="X68" s="8" t="s">
@@ -9223,15 +8543,15 @@
         <v>16</v>
       </c>
       <c r="D69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="F69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="X69" s="8" t="s">
@@ -9276,15 +8596,15 @@
         <v>17</v>
       </c>
       <c r="D70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>38</v>
       </c>
       <c r="F70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="X70" s="8" t="s">
@@ -9329,15 +8649,15 @@
         <v>18</v>
       </c>
       <c r="D71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="F71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="X71" s="8" t="s">
@@ -9382,15 +8702,15 @@
         <v>19</v>
       </c>
       <c r="D72">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="F72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="X72" s="8" t="s">
@@ -9435,15 +8755,15 @@
         <v>20</v>
       </c>
       <c r="D73">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="E73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>41</v>
       </c>
       <c r="F73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="X73" s="8" t="s">
